--- a/CEA_test_result.xlsx
+++ b/CEA_test_result.xlsx
@@ -558,16 +558,16 @@
         <v>4.97391639619232</v>
       </c>
       <c r="F2" t="n">
-        <v>6169.349307912459</v>
+        <v>3427.416282173588</v>
       </c>
       <c r="G2" t="n">
-        <v>1.976465357826723</v>
+        <v>3.557637644088102</v>
       </c>
       <c r="H2" t="n">
-        <v>1692.281630802256</v>
+        <v>1261.352254516015</v>
       </c>
       <c r="I2" t="n">
-        <v>162.2762355084798</v>
+        <v>120.9535645765753</v>
       </c>
       <c r="J2" t="n">
         <v>1.137983607668575</v>
@@ -585,10 +585,10 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O2" t="n">
-        <v>4.997780802295069e-05</v>
+        <v>4.997780802295068e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09994927708934462</v>
+        <v>0.0999492770893446</v>
       </c>
       <c r="Q2" t="n">
         <v>1.682193581372957</v>
@@ -611,16 +611,16 @@
         <v>4.97391639619232</v>
       </c>
       <c r="F3" t="n">
-        <v>6169.349307912459</v>
+        <v>3427.416282173588</v>
       </c>
       <c r="G3" t="n">
-        <v>1.976465357826723</v>
+        <v>3.557637644088102</v>
       </c>
       <c r="H3" t="n">
-        <v>1692.281630802256</v>
+        <v>1261.352254516015</v>
       </c>
       <c r="I3" t="n">
-        <v>162.2762355084798</v>
+        <v>120.9535645765753</v>
       </c>
       <c r="J3" t="n">
         <v>1.137983607668575</v>
@@ -638,10 +638,10 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O3" t="n">
-        <v>4.997780802295069e-05</v>
+        <v>4.997780802295068e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09994927708934462</v>
+        <v>0.0999492770893446</v>
       </c>
       <c r="Q3" t="n">
         <v>1.682193581372957</v>
@@ -664,16 +664,16 @@
         <v>4.973883152491436</v>
       </c>
       <c r="F4" t="n">
-        <v>6169.34430822323</v>
+        <v>3427.413504568461</v>
       </c>
       <c r="G4" t="n">
-        <v>1.976453749643315</v>
+        <v>3.557616749357966</v>
       </c>
       <c r="H4" t="n">
-        <v>1692.280945082942</v>
+        <v>1261.351743411015</v>
       </c>
       <c r="I4" t="n">
-        <v>162.3798517607484</v>
+        <v>121.0307955711241</v>
       </c>
       <c r="J4" t="n">
         <v>1.137983607668575</v>
@@ -717,16 +717,16 @@
         <v>4.973783167440112</v>
       </c>
       <c r="F5" t="n">
-        <v>6169.329270785935</v>
+        <v>3427.405150436631</v>
       </c>
       <c r="G5" t="n">
-        <v>1.976418836361464</v>
+        <v>3.557553905450635</v>
       </c>
       <c r="H5" t="n">
-        <v>1692.278882660841</v>
+        <v>1261.350206172343</v>
       </c>
       <c r="I5" t="n">
-        <v>162.6910979832635</v>
+        <v>121.2627848082187</v>
       </c>
       <c r="J5" t="n">
         <v>1.137983607668575</v>
@@ -747,7 +747,7 @@
         <v>4.99776943985682e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09994901739298294</v>
+        <v>0.09994901739298295</v>
       </c>
       <c r="Q5" t="n">
         <v>1.682194127725321</v>
@@ -770,16 +770,16 @@
         <v>4.973615444442847</v>
       </c>
       <c r="F6" t="n">
-        <v>6169.304045178039</v>
+        <v>3427.391136210022</v>
       </c>
       <c r="G6" t="n">
-        <v>1.976360269812695</v>
+        <v>3.55744848566285</v>
       </c>
       <c r="H6" t="n">
-        <v>1692.275422900037</v>
+        <v>1261.347627418896</v>
       </c>
       <c r="I6" t="n">
-        <v>163.2118868875941</v>
+        <v>121.650957938889</v>
       </c>
       <c r="J6" t="n">
         <v>1.137983607668575</v>
@@ -823,16 +823,16 @@
         <v>4.973378456401968</v>
       </c>
       <c r="F7" t="n">
-        <v>6169.268400804681</v>
+        <v>3427.371333780378</v>
       </c>
       <c r="G7" t="n">
-        <v>1.976277516461322</v>
+        <v>3.557299529630379</v>
       </c>
       <c r="H7" t="n">
-        <v>1692.270534165126</v>
+        <v>1261.343983571034</v>
       </c>
       <c r="I7" t="n">
-        <v>163.9449534307513</v>
+        <v>122.1973534797324</v>
       </c>
       <c r="J7" t="n">
         <v>1.137983607668575</v>
@@ -876,16 +876,16 @@
         <v>4.973069918658028</v>
       </c>
       <c r="F8" t="n">
-        <v>6169.221992705179</v>
+        <v>3427.345551502877</v>
       </c>
       <c r="G8" t="n">
-        <v>1.976169778104417</v>
+        <v>3.557105600587951</v>
       </c>
       <c r="H8" t="n">
-        <v>1692.264169131063</v>
+        <v>1261.339239354753</v>
       </c>
       <c r="I8" t="n">
-        <v>164.8945043972318</v>
+        <v>122.9051069827827</v>
       </c>
       <c r="J8" t="n">
         <v>1.137983607668575</v>
@@ -929,16 +929,16 @@
         <v>4.972686947811343</v>
       </c>
       <c r="F9" t="n">
-        <v>6169.164385377098</v>
+        <v>3427.313547431721</v>
       </c>
       <c r="G9" t="n">
-        <v>1.976036047310015</v>
+        <v>3.556864885158026</v>
       </c>
       <c r="H9" t="n">
-        <v>1692.25626805011</v>
+        <v>1261.333350236717</v>
       </c>
       <c r="I9" t="n">
-        <v>166.0656487903512</v>
+        <v>123.778026474277</v>
       </c>
       <c r="J9" t="n">
         <v>1.137983607668575</v>
@@ -982,16 +982,16 @@
         <v>4.972225768902095</v>
       </c>
       <c r="F10" t="n">
-        <v>6169.095008643553</v>
+        <v>3427.275004801974</v>
       </c>
       <c r="G10" t="n">
-        <v>1.975875005138872</v>
+        <v>3.55657500924997</v>
       </c>
       <c r="H10" t="n">
-        <v>1692.246752698035</v>
+        <v>1261.326257912027</v>
       </c>
       <c r="I10" t="n">
-        <v>167.4651918666935</v>
+        <v>124.8211842929905</v>
       </c>
       <c r="J10" t="n">
         <v>1.137983607668575</v>
@@ -1035,16 +1035,16 @@
         <v>4.971681846946722</v>
       </c>
       <c r="F11" t="n">
-        <v>6169.013177320582</v>
+        <v>3427.229542955879</v>
       </c>
       <c r="G11" t="n">
-        <v>1.975685067038131</v>
+        <v>3.556233120668635</v>
       </c>
       <c r="H11" t="n">
-        <v>1692.235529070453</v>
+        <v>1261.317892313951</v>
       </c>
       <c r="I11" t="n">
-        <v>169.1010942384239</v>
+        <v>126.0405139289046</v>
       </c>
       <c r="J11" t="n">
         <v>1.137983607668575</v>
@@ -1088,16 +1088,16 @@
         <v>4.971049694410002</v>
       </c>
       <c r="F12" t="n">
-        <v>6168.918062102678</v>
+        <v>3427.176701168155</v>
       </c>
       <c r="G12" t="n">
-        <v>1.975464315562637</v>
+        <v>3.555835768012747</v>
       </c>
       <c r="H12" t="n">
-        <v>1692.222483388194</v>
+        <v>1261.308168636504</v>
       </c>
       <c r="I12" t="n">
-        <v>170.9828889711683</v>
+        <v>127.4431209096105</v>
       </c>
       <c r="J12" t="n">
         <v>1.137983607668575</v>
@@ -1141,16 +1141,16 @@
         <v>4.970322756548841</v>
       </c>
       <c r="F13" t="n">
-        <v>6168.808672113056</v>
+        <v>3427.115928951698</v>
       </c>
       <c r="G13" t="n">
-        <v>1.975210460272901</v>
+        <v>3.555378828491222</v>
       </c>
       <c r="H13" t="n">
-        <v>1692.207479702081</v>
+        <v>1261.296985549149</v>
       </c>
       <c r="I13" t="n">
-        <v>173.1218131700545</v>
+        <v>129.0373808787534</v>
       </c>
       <c r="J13" t="n">
         <v>1.137983607668575</v>
@@ -1194,16 +1194,16 @@
         <v>4.969493389319803</v>
       </c>
       <c r="F14" t="n">
-        <v>6168.683851327208</v>
+        <v>3427.046584070671</v>
       </c>
       <c r="G14" t="n">
-        <v>1.974920829939596</v>
+        <v>3.554857493891273</v>
       </c>
       <c r="H14" t="n">
-        <v>1692.190359399997</v>
+        <v>1261.284224829398</v>
       </c>
       <c r="I14" t="n">
-        <v>175.5306236257047</v>
+        <v>130.8328021866688</v>
       </c>
       <c r="J14" t="n">
         <v>1.137983607668575</v>
@@ -1224,10 +1224,10 @@
         <v>4.997403436408389e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>0.09994065217689152</v>
+        <v>0.09994065217689153</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.682211727422992</v>
+        <v>1.682211727422991</v>
       </c>
     </row>
     <row r="15">
@@ -1247,16 +1247,16 @@
         <v>4.968552420661938</v>
       </c>
       <c r="F15" t="n">
-        <v>6168.542212221139</v>
+        <v>3426.967895678411</v>
       </c>
       <c r="G15" t="n">
-        <v>1.974592219231784</v>
+        <v>3.554265994617211</v>
       </c>
       <c r="H15" t="n">
-        <v>1692.170932103071</v>
+        <v>1261.269744577216</v>
       </c>
       <c r="I15" t="n">
-        <v>178.2245689294674</v>
+        <v>132.8407504622953</v>
       </c>
       <c r="J15" t="n">
         <v>1.137983607668575</v>
@@ -1274,7 +1274,7 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O15" t="n">
-        <v>4.997323114390396e-05</v>
+        <v>4.997323114390395e-05</v>
       </c>
       <c r="P15" t="n">
         <v>0.09993881638339286</v>
@@ -1300,16 +1300,16 @@
         <v>4.967489340685138</v>
       </c>
       <c r="F16" t="n">
-        <v>6168.382163973394</v>
+        <v>3426.878979985219</v>
       </c>
       <c r="G16" t="n">
-        <v>1.974220954999502</v>
+        <v>3.553597718999104</v>
       </c>
       <c r="H16" t="n">
-        <v>1692.148979529838</v>
+        <v>1261.253382095206</v>
       </c>
       <c r="I16" t="n">
-        <v>181.2204657703354</v>
+        <v>135.0737601255479</v>
       </c>
       <c r="J16" t="n">
         <v>1.137983607668575</v>
@@ -1353,16 +1353,16 @@
         <v>4.966291696811646</v>
       </c>
       <c r="F17" t="n">
-        <v>6168.20182087557</v>
+        <v>3426.778789375317</v>
       </c>
       <c r="G17" t="n">
-        <v>1.973802684867918</v>
+        <v>3.552844832762253</v>
       </c>
       <c r="H17" t="n">
-        <v>1692.12424292862</v>
+        <v>1261.234944521254</v>
       </c>
       <c r="I17" t="n">
-        <v>184.5379859643995</v>
+        <v>137.5464936824331</v>
       </c>
       <c r="J17" t="n">
         <v>1.137983607668575</v>
@@ -1406,16 +1406,16 @@
         <v>4.96494504247822</v>
       </c>
       <c r="F18" t="n">
-        <v>6167.998993897191</v>
+        <v>3426.666107720662</v>
       </c>
       <c r="G18" t="n">
-        <v>1.973332359094948</v>
+        <v>3.551998246370906</v>
       </c>
       <c r="H18" t="n">
-        <v>1692.096421913788</v>
+        <v>1261.214207961132</v>
       </c>
       <c r="I18" t="n">
-        <v>188.1992525952237</v>
+        <v>140.275440705858</v>
       </c>
       <c r="J18" t="n">
         <v>1.137983607668575</v>
@@ -1459,16 +1459,16 @@
         <v>4.963432349133782</v>
       </c>
       <c r="F19" t="n">
-        <v>6167.771101215657</v>
+        <v>3426.539500675365</v>
       </c>
       <c r="G19" t="n">
-        <v>1.972804024918729</v>
+        <v>3.551047244853712</v>
       </c>
       <c r="H19" t="n">
-        <v>1692.065162184875</v>
+        <v>1261.190908334863</v>
       </c>
       <c r="I19" t="n">
-        <v>192.2298100054069</v>
+        <v>143.279640824653</v>
       </c>
       <c r="J19" t="n">
         <v>1.137983607668575</v>
@@ -1512,16 +1512,16 @@
         <v>4.961733841227269</v>
       </c>
       <c r="F20" t="n">
-        <v>6167.515142153135</v>
+        <v>3426.397301196186</v>
       </c>
       <c r="G20" t="n">
-        <v>1.972210768540327</v>
+        <v>3.54997938337259</v>
       </c>
       <c r="H20" t="n">
-        <v>1692.030051940107</v>
+        <v>1261.164738703526</v>
       </c>
       <c r="I20" t="n">
-        <v>196.6582858647286</v>
+        <v>146.5804318440397</v>
       </c>
       <c r="J20" t="n">
         <v>1.137983607668575</v>
@@ -1565,16 +1565,16 @@
         <v>4.959826104784306</v>
       </c>
       <c r="F21" t="n">
-        <v>6167.227561275511</v>
+        <v>3426.237534041951</v>
       </c>
       <c r="G21" t="n">
-        <v>1.971544403266956</v>
+        <v>3.54877992588052</v>
       </c>
       <c r="H21" t="n">
-        <v>1691.990603219796</v>
+        <v>1261.135335363446</v>
       </c>
       <c r="I21" t="n">
-        <v>201.5178044431826</v>
+        <v>150.2025031371551</v>
       </c>
       <c r="J21" t="n">
         <v>1.137983607668575</v>
@@ -1618,16 +1618,16 @@
         <v>4.957681709622171</v>
       </c>
       <c r="F22" t="n">
-        <v>6166.904189324651</v>
+        <v>3426.05788295814</v>
       </c>
       <c r="G22" t="n">
-        <v>1.970795336877724</v>
+        <v>3.547431606379903</v>
       </c>
       <c r="H22" t="n">
-        <v>1691.946243783634</v>
+        <v>1261.102271791879</v>
       </c>
       <c r="I22" t="n">
-        <v>206.8457985981799</v>
+        <v>154.173755508587</v>
       </c>
       <c r="J22" t="n">
         <v>1.137983607668575</v>
@@ -1671,16 +1671,16 @@
         <v>4.95526822065466</v>
       </c>
       <c r="F23" t="n">
-        <v>6166.540091336378</v>
+        <v>3425.855606297988</v>
       </c>
       <c r="G23" t="n">
-        <v>1.969952225370836</v>
+        <v>3.545914005667505</v>
       </c>
       <c r="H23" t="n">
-        <v>1691.896296249365</v>
+        <v>1261.065043097901</v>
       </c>
       <c r="I23" t="n">
-        <v>212.6851245950519</v>
+        <v>158.5261321325161</v>
       </c>
       <c r="J23" t="n">
         <v>1.137983607668575</v>
@@ -1724,16 +1724,16 @@
         <v>4.952547279275946</v>
       </c>
       <c r="F24" t="n">
-        <v>6166.12942427702</v>
+        <v>3425.627457931678</v>
       </c>
       <c r="G24" t="n">
-        <v>1.969001650856783</v>
+        <v>3.54420297154221</v>
       </c>
       <c r="H24" t="n">
-        <v>1691.839958527187</v>
+        <v>1261.023051439072</v>
       </c>
       <c r="I24" t="n">
-        <v>219.0846250837182</v>
+        <v>163.2960381707498</v>
       </c>
       <c r="J24" t="n">
         <v>1.137983607668575</v>
@@ -1777,16 +1777,16 @@
         <v>4.949472957964381</v>
       </c>
       <c r="F25" t="n">
-        <v>6165.665183556071</v>
+        <v>3425.36954642004</v>
       </c>
       <c r="G25" t="n">
-        <v>1.967927545092435</v>
+        <v>3.542269581166382</v>
       </c>
       <c r="H25" t="n">
-        <v>1691.776268995882</v>
+        <v>1260.975580065254</v>
       </c>
       <c r="I25" t="n">
-        <v>226.1009639290242</v>
+        <v>168.5257083745087</v>
       </c>
       <c r="J25" t="n">
         <v>1.137983607668575</v>
@@ -1810,7 +1810,7 @@
         <v>0.09990152520600336</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.682294069226244</v>
+        <v>1.682294069226245</v>
       </c>
     </row>
     <row r="26">
@@ -1830,16 +1830,16 @@
         <v>4.945990652617799</v>
       </c>
       <c r="F26" t="n">
-        <v>6165.139028663925</v>
+        <v>3425.077238146625</v>
       </c>
       <c r="G26" t="n">
-        <v>1.966710800228973</v>
+        <v>3.540079440412152</v>
       </c>
       <c r="H26" t="n">
-        <v>1691.704082514384</v>
+        <v>1260.921775438693</v>
       </c>
       <c r="I26" t="n">
-        <v>233.7986289448373</v>
+        <v>174.263209122302</v>
       </c>
       <c r="J26" t="n">
         <v>1.137983607668575</v>
@@ -1883,16 +1883,16 @@
         <v>4.942034414966629</v>
       </c>
       <c r="F27" t="n">
-        <v>6164.540870372705</v>
+        <v>3424.744927984836</v>
       </c>
       <c r="G27" t="n">
-        <v>1.965328333641877</v>
+        <v>3.537591000555378</v>
       </c>
       <c r="H27" t="n">
-        <v>1691.622013694508</v>
+        <v>1260.860604952</v>
       </c>
       <c r="I27" t="n">
-        <v>242.2527931744886</v>
+        <v>180.5645710924512</v>
       </c>
       <c r="J27" t="n">
         <v>1.137983607668575</v>
@@ -1936,16 +1936,16 @@
         <v>4.93752471587158</v>
       </c>
       <c r="F28" t="n">
-        <v>6163.858518772208</v>
+        <v>3424.365843762338</v>
       </c>
       <c r="G28" t="n">
-        <v>1.963752301963553</v>
+        <v>3.534754143534397</v>
       </c>
       <c r="H28" t="n">
-        <v>1691.528388479241</v>
+        <v>1260.790820836751</v>
       </c>
       <c r="I28" t="n">
-        <v>251.5502227305238</v>
+        <v>187.4944659268879</v>
       </c>
       <c r="J28" t="n">
         <v>1.137983607668575</v>
@@ -1963,10 +1963,10 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O28" t="n">
-        <v>4.9946667303106e-05</v>
+        <v>4.994666730310599e-05</v>
       </c>
       <c r="P28" t="n">
-        <v>0.09987810598340582</v>
+        <v>0.09987810598340581</v>
       </c>
       <c r="Q28" t="n">
         <v>1.682343371795955</v>
@@ -1989,16 +1989,16 @@
         <v>4.932364752087988</v>
       </c>
       <c r="F29" t="n">
-        <v>6163.077105072956</v>
+        <v>3423.931725040532</v>
       </c>
       <c r="G29" t="n">
-        <v>1.961948804243969</v>
+        <v>3.531507847639144</v>
       </c>
       <c r="H29" t="n">
-        <v>1691.421164623775</v>
+        <v>1260.710900893542</v>
       </c>
       <c r="I29" t="n">
-        <v>261.7921647897726</v>
+        <v>195.1283588155861</v>
       </c>
       <c r="J29" t="n">
         <v>1.137983607668575</v>
@@ -2042,16 +2042,16 @@
         <v>4.926435779689863</v>
       </c>
       <c r="F30" t="n">
-        <v>6162.178346969957</v>
+        <v>3423.432414983309</v>
       </c>
       <c r="G30" t="n">
-        <v>1.95987624205797</v>
+        <v>3.527777235704345</v>
       </c>
       <c r="H30" t="n">
-        <v>1691.297830623802</v>
+        <v>1260.618973157582</v>
       </c>
       <c r="I30" t="n">
-        <v>273.097591480455</v>
+        <v>203.5549263472549</v>
       </c>
       <c r="J30" t="n">
         <v>1.137983607668575</v>
@@ -2095,16 +2095,16 @@
         <v>4.919591592518416</v>
       </c>
       <c r="F31" t="n">
-        <v>6161.139671073232</v>
+        <v>3422.855372818462</v>
       </c>
       <c r="G31" t="n">
-        <v>1.957483376542254</v>
+        <v>3.523470077776058</v>
       </c>
       <c r="H31" t="n">
-        <v>1691.155284901781</v>
+        <v>1260.512725849469</v>
       </c>
       <c r="I31" t="n">
-        <v>285.6061395548484</v>
+        <v>212.8782476119775</v>
       </c>
       <c r="J31" t="n">
         <v>1.137983607668575</v>
@@ -2148,16 +2148,16 @@
         <v>4.911650167446703</v>
       </c>
       <c r="F32" t="n">
-        <v>6159.932885348352</v>
+        <v>3422.18493630464</v>
       </c>
       <c r="G32" t="n">
-        <v>1.954706388596795</v>
+        <v>3.518471499474231</v>
       </c>
       <c r="H32" t="n">
-        <v>1690.989653045395</v>
+        <v>1260.389271152763</v>
       </c>
       <c r="I32" t="n">
-        <v>299.4837905289141</v>
+        <v>223.2220379273199</v>
       </c>
       <c r="J32" t="n">
         <v>1.137983607668575</v>
@@ -2201,16 +2201,16 @@
         <v>4.428905258693726</v>
       </c>
       <c r="F33" t="n">
-        <v>6083.142218716024</v>
+        <v>3379.523454842235</v>
       </c>
       <c r="G33" t="n">
-        <v>1.784836777796821</v>
+        <v>3.212706200034279</v>
       </c>
       <c r="H33" t="n">
-        <v>1680.416530183501</v>
+        <v>1252.508530668212</v>
       </c>
       <c r="I33" t="n">
-        <v>778.6943164568652</v>
+        <v>580.4044750967612</v>
       </c>
       <c r="J33" t="n">
         <v>1.137983607668575</v>
@@ -2254,16 +2254,16 @@
         <v>4.39708431165076</v>
       </c>
       <c r="F34" t="n">
-        <v>6077.825897856904</v>
+        <v>3376.569943253835</v>
       </c>
       <c r="G34" t="n">
-        <v>1.773563016016023</v>
+        <v>3.192413428828841</v>
       </c>
       <c r="H34" t="n">
-        <v>1679.682075369228</v>
+        <v>1251.961100371173</v>
       </c>
       <c r="I34" t="n">
-        <v>801.3331973568939</v>
+        <v>597.27850063909</v>
       </c>
       <c r="J34" t="n">
         <v>1.137983607668575</v>
@@ -2307,16 +2307,16 @@
         <v>4.363760197157372</v>
       </c>
       <c r="F35" t="n">
-        <v>6072.22207766758</v>
+        <v>3373.456709815322</v>
       </c>
       <c r="G35" t="n">
-        <v>1.761746090220077</v>
+        <v>3.171142962396138</v>
       </c>
       <c r="H35" t="n">
-        <v>1678.907554420262</v>
+        <v>1251.383806540544</v>
       </c>
       <c r="I35" t="n">
-        <v>824.5237069479413</v>
+        <v>614.5636859319042</v>
       </c>
       <c r="J35" t="n">
         <v>1.137983607668575</v>
@@ -2360,16 +2360,16 @@
         <v>4.328894832144245</v>
       </c>
       <c r="F36" t="n">
-        <v>6066.318680039948</v>
+        <v>3370.177044466638</v>
       </c>
       <c r="G36" t="n">
-        <v>1.749370908152574</v>
+        <v>3.148867634674632</v>
       </c>
       <c r="H36" t="n">
-        <v>1678.091241310882</v>
+        <v>1250.775362672712</v>
       </c>
       <c r="I36" t="n">
-        <v>848.2685038304728</v>
+        <v>632.2620125789928</v>
       </c>
       <c r="J36" t="n">
         <v>1.137983607668575</v>
@@ -2413,16 +2413,16 @@
         <v>4.292455133460873</v>
       </c>
       <c r="F37" t="n">
-        <v>6060.103893188263</v>
+        <v>3366.724385104591</v>
       </c>
       <c r="G37" t="n">
-        <v>1.736424004470088</v>
+        <v>3.125563208046159</v>
       </c>
       <c r="H37" t="n">
-        <v>1677.231440469816</v>
+        <v>1250.134504963467</v>
       </c>
       <c r="I37" t="n">
-        <v>872.5678774750745</v>
+        <v>650.3736963389914</v>
       </c>
       <c r="J37" t="n">
         <v>1.137983607668575</v>
@@ -2466,16 +2466,16 @@
         <v>4.254414441561579</v>
       </c>
       <c r="F38" t="n">
-        <v>6053.56639781146</v>
+        <v>3363.092443228589</v>
       </c>
       <c r="G38" t="n">
-        <v>1.722894045773887</v>
+        <v>3.101209282392996</v>
       </c>
       <c r="H38" t="n">
-        <v>1676.32651773718</v>
+        <v>1249.460015381947</v>
       </c>
       <c r="I38" t="n">
-        <v>897.4192120425356</v>
+        <v>668.8967874804691</v>
       </c>
       <c r="J38" t="n">
         <v>1.137983607668575</v>
@@ -2519,16 +2519,16 @@
         <v>4.214748486271303</v>
       </c>
       <c r="F39" t="n">
-        <v>6046.694656712555</v>
+        <v>3359.274809284753</v>
       </c>
       <c r="G39" t="n">
-        <v>1.708770395277478</v>
+        <v>3.07578671149946</v>
       </c>
       <c r="H39" t="n">
-        <v>1675.37480167663</v>
+        <v>1248.750648113058</v>
       </c>
       <c r="I39" t="n">
-        <v>922.8199742569036</v>
+        <v>687.8293978110142</v>
       </c>
       <c r="J39" t="n">
         <v>1.137983607668575</v>
@@ -2572,16 +2572,16 @@
         <v>4.173435018607372</v>
       </c>
       <c r="F40" t="n">
-        <v>6039.476813776516</v>
+        <v>3355.264896542509</v>
       </c>
       <c r="G40" t="n">
-        <v>1.694042976004685</v>
+        <v>3.049277356808433</v>
       </c>
       <c r="H40" t="n">
-        <v>1674.374569012072</v>
+        <v>1248.005118702635</v>
       </c>
       <c r="I40" t="n">
-        <v>948.7680755052436</v>
+        <v>707.1699705704592</v>
       </c>
       <c r="J40" t="n">
         <v>1.137983607668575</v>
@@ -2602,7 +2602,7 @@
         <v>4.923899440185757e-05</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0982624579499686</v>
+        <v>0.09826245794996859</v>
       </c>
       <c r="Q40" t="n">
         <v>1.685776423779221</v>
@@ -2625,16 +2625,16 @@
         <v>4.130459979106144</v>
       </c>
       <c r="F41" t="n">
-        <v>6031.901744393781</v>
+        <v>3351.056524663211</v>
       </c>
       <c r="G41" t="n">
-        <v>1.678704467394726</v>
+        <v>3.021668041310508</v>
       </c>
       <c r="H41" t="n">
-        <v>1673.324189689446</v>
+        <v>1247.222212180118</v>
       </c>
       <c r="I41" t="n">
-        <v>975.2582022286906</v>
+        <v>726.9145452658629</v>
       </c>
       <c r="J41" t="n">
         <v>1.137983607668575</v>
@@ -2678,16 +2678,16 @@
         <v>4.085812141908635</v>
       </c>
       <c r="F42" t="n">
-        <v>6023.958105319331</v>
+        <v>3346.643391844073</v>
       </c>
       <c r="G42" t="n">
-        <v>1.662748397932178</v>
+        <v>2.99294711627792</v>
       </c>
       <c r="H42" t="n">
-        <v>1672.221994797823</v>
+        <v>1246.400684612744</v>
       </c>
       <c r="I42" t="n">
-        <v>1002.285451322218</v>
+        <v>747.0594673385117</v>
       </c>
       <c r="J42" t="n">
         <v>1.137983607668575</v>
@@ -2708,7 +2708,7 @@
         <v>4.915039495386095e-05</v>
       </c>
       <c r="P42" t="n">
-        <v>0.09806041413469893</v>
+        <v>0.09806041413469892</v>
       </c>
       <c r="Q42" t="n">
         <v>1.686210204923156</v>
@@ -2731,16 +2731,16 @@
         <v>4.03948636663777</v>
       </c>
       <c r="F43" t="n">
-        <v>6015.634886691036</v>
+        <v>3342.01938149502</v>
       </c>
       <c r="G43" t="n">
-        <v>1.646170306369395</v>
+        <v>2.963106551464912</v>
       </c>
       <c r="H43" t="n">
-        <v>1671.066352609746</v>
+        <v>1245.539319782675</v>
       </c>
       <c r="I43" t="n">
-        <v>1029.843499776014</v>
+        <v>767.6000238951523</v>
       </c>
       <c r="J43" t="n">
         <v>1.137983607668575</v>
@@ -2784,16 +2784,16 @@
         <v>3.991479856694136</v>
       </c>
       <c r="F44" t="n">
-        <v>6006.920722962108</v>
+        <v>3337.178179423393</v>
       </c>
       <c r="G44" t="n">
-        <v>1.628966405160217</v>
+        <v>2.932139529288392</v>
       </c>
       <c r="H44" t="n">
-        <v>1669.855572413371</v>
+        <v>1244.636857507706</v>
       </c>
       <c r="I44" t="n">
-        <v>1057.927009136263</v>
+        <v>788.5322358872414</v>
       </c>
       <c r="J44" t="n">
         <v>1.137983607668575</v>
@@ -2837,16 +2837,16 @@
         <v>3.941809998231585</v>
       </c>
       <c r="F45" t="n">
-        <v>5997.807143164123</v>
+        <v>3332.115079535624</v>
       </c>
       <c r="G45" t="n">
-        <v>1.611139984223802</v>
+        <v>2.900051971602844</v>
       </c>
       <c r="H45" t="n">
-        <v>1668.588355868999</v>
+        <v>1243.692330062564</v>
       </c>
       <c r="I45" t="n">
-        <v>1086.521462944715</v>
+        <v>809.8452833856343</v>
       </c>
       <c r="J45" t="n">
         <v>1.137983607668575</v>
@@ -2864,13 +2864,13 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O45" t="n">
-        <v>4.900093872368645e-05</v>
+        <v>4.900093872368646e-05</v>
       </c>
       <c r="P45" t="n">
-        <v>0.09771970932798843</v>
+        <v>0.09771970932798844</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.686943968751194</v>
+        <v>1.686943968751195</v>
       </c>
     </row>
     <row r="46">
@@ -2890,16 +2890,16 @@
         <v>3.890484768995019</v>
       </c>
       <c r="F46" t="n">
-        <v>5988.283194729821</v>
+        <v>3326.823997072123</v>
       </c>
       <c r="G46" t="n">
-        <v>1.592690813241932</v>
+        <v>2.866843463835477</v>
       </c>
       <c r="H46" t="n">
-        <v>1667.263049581084</v>
+        <v>1242.704505078968</v>
       </c>
       <c r="I46" t="n">
-        <v>1115.620600853695</v>
+        <v>831.5345002026739</v>
       </c>
       <c r="J46" t="n">
         <v>1.137983607668575</v>
@@ -2943,16 +2943,16 @@
         <v>3.837529036365855</v>
       </c>
       <c r="F47" t="n">
-        <v>5978.340252774976</v>
+        <v>3321.300140430542</v>
       </c>
       <c r="G47" t="n">
-        <v>1.573624584164079</v>
+        <v>2.832524251495343</v>
       </c>
       <c r="H47" t="n">
-        <v>1665.878313236568</v>
+        <v>1241.672383546551</v>
       </c>
       <c r="I47" t="n">
-        <v>1145.211288238119</v>
+        <v>853.5900963668463</v>
       </c>
       <c r="J47" t="n">
         <v>1.137983607668575</v>
@@ -2996,16 +2996,16 @@
         <v>3.782964874624178</v>
       </c>
       <c r="F48" t="n">
-        <v>5967.968386700989</v>
+        <v>3315.537992611661</v>
       </c>
       <c r="G48" t="n">
-        <v>1.553945850372503</v>
+        <v>2.797102530670506</v>
       </c>
       <c r="H48" t="n">
-        <v>1664.432613712528</v>
+        <v>1240.594822742954</v>
       </c>
       <c r="I48" t="n">
-        <v>1175.2848228984</v>
+        <v>876.0055856415408</v>
       </c>
       <c r="J48" t="n">
         <v>1.137983607668575</v>
@@ -3023,10 +3023,10 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O48" t="n">
-        <v>4.883016724824063e-05</v>
+        <v>4.883016724824064e-05</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0973305953675376</v>
+        <v>0.09733059536753762</v>
       </c>
       <c r="Q48" t="n">
         <v>1.687785518366462</v>
@@ -3049,16 +3049,16 @@
         <v>3.726841299261896</v>
       </c>
       <c r="F49" t="n">
-        <v>5957.162032573612</v>
+        <v>3309.534462540895</v>
       </c>
       <c r="G49" t="n">
-        <v>1.53366876518869</v>
+        <v>2.760603777339643</v>
       </c>
       <c r="H49" t="n">
-        <v>1662.92501543199</v>
+        <v>1239.471125330272</v>
       </c>
       <c r="I49" t="n">
-        <v>1205.820601007786</v>
+        <v>898.7656108410202</v>
       </c>
       <c r="J49" t="n">
         <v>1.137983607668575</v>
@@ -3076,10 +3076,10 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O49" t="n">
-        <v>4.876825779505983e-05</v>
+        <v>4.876825779505982e-05</v>
       </c>
       <c r="P49" t="n">
-        <v>0.09718957860591861</v>
+        <v>0.09718957860591859</v>
       </c>
       <c r="Q49" t="n">
         <v>1.68809143478372</v>
@@ -3102,16 +3102,16 @@
         <v>3.669183316263164</v>
       </c>
       <c r="F50" t="n">
-        <v>5945.910275994783</v>
+        <v>3303.283486663768</v>
       </c>
       <c r="G50" t="n">
-        <v>1.512798707889596</v>
+        <v>2.723037674201273</v>
       </c>
       <c r="H50" t="n">
-        <v>1661.353825082993</v>
+        <v>1238.300029188289</v>
       </c>
       <c r="I50" t="n">
-        <v>1236.814073015981</v>
+        <v>921.8667809307076</v>
       </c>
       <c r="J50" t="n">
         <v>1.137983607668575</v>
@@ -3155,16 +3155,16 @@
         <v>3.61005967014297</v>
       </c>
       <c r="F51" t="n">
-        <v>5934.20998323435</v>
+        <v>3296.783324019083</v>
       </c>
       <c r="G51" t="n">
-        <v>1.491356792871538</v>
+        <v>2.684442227168768</v>
       </c>
       <c r="H51" t="n">
-        <v>1659.718423834288</v>
+        <v>1237.081073067425</v>
       </c>
       <c r="I51" t="n">
-        <v>1268.239996194686</v>
+        <v>945.2902810917977</v>
       </c>
       <c r="J51" t="n">
         <v>1.137983607668575</v>
@@ -3208,16 +3208,16 @@
         <v>3.549518645612081</v>
       </c>
       <c r="F52" t="n">
-        <v>5922.05339101338</v>
+        <v>3290.0296616741</v>
       </c>
       <c r="G52" t="n">
-        <v>1.469356672706836</v>
+        <v>2.644842010872305</v>
       </c>
       <c r="H52" t="n">
-        <v>1658.017534925415</v>
+        <v>1235.81330532662</v>
       </c>
       <c r="I52" t="n">
-        <v>1300.087099415466</v>
+        <v>969.0277103211695</v>
       </c>
       <c r="J52" t="n">
         <v>1.137983607668575</v>
@@ -3261,16 +3261,16 @@
         <v>3.487634456687347</v>
       </c>
       <c r="F53" t="n">
-        <v>5909.437303573074</v>
+        <v>3283.020724207263</v>
       </c>
       <c r="G53" t="n">
-        <v>1.446821375810738</v>
+        <v>2.604278476459328</v>
       </c>
       <c r="H53" t="n">
-        <v>1656.250508757508</v>
+        <v>1234.496241783466</v>
       </c>
       <c r="I53" t="n">
-        <v>1332.333249507158</v>
+        <v>993.0625715270644</v>
       </c>
       <c r="J53" t="n">
         <v>1.137983607668575</v>
@@ -3314,16 +3314,16 @@
         <v>3.424470616174422</v>
       </c>
       <c r="F54" t="n">
-        <v>5896.355827032578</v>
+        <v>3275.753237240321</v>
       </c>
       <c r="G54" t="n">
-        <v>1.423770027948759</v>
+        <v>2.562786050307766</v>
       </c>
       <c r="H54" t="n">
-        <v>1654.416306553041</v>
+        <v>1233.12910817891</v>
       </c>
       <c r="I54" t="n">
-        <v>1364.964691504636</v>
+        <v>1017.384612363799</v>
       </c>
       <c r="J54" t="n">
         <v>1.137983607668575</v>
@@ -3367,16 +3367,16 @@
         <v>3.360108806427862</v>
       </c>
       <c r="F55" t="n">
-        <v>5882.806302918664</v>
+        <v>3268.225723843702</v>
       </c>
       <c r="G55" t="n">
-        <v>1.400228387268705</v>
+        <v>2.52041109708367</v>
       </c>
       <c r="H55" t="n">
-        <v>1652.514331236482</v>
+        <v>1231.711459479126</v>
       </c>
       <c r="I55" t="n">
-        <v>1397.960842489742</v>
+        <v>1041.97849122998</v>
       </c>
       <c r="J55" t="n">
         <v>1.137983607668575</v>
@@ -3420,16 +3420,16 @@
         <v>3.294642249835479</v>
       </c>
       <c r="F56" t="n">
-        <v>5868.788182850252</v>
+        <v>3260.437879361251</v>
       </c>
       <c r="G56" t="n">
-        <v>1.376226494535157</v>
+        <v>2.477207690163282</v>
       </c>
       <c r="H56" t="n">
-        <v>1650.544271402799</v>
+        <v>1230.243063576507</v>
       </c>
       <c r="I56" t="n">
-        <v>1431.297768349295</v>
+        <v>1066.826368690924</v>
       </c>
       <c r="J56" t="n">
         <v>1.137983607668575</v>
@@ -3473,16 +3473,16 @@
         <v>3.228159211875658</v>
       </c>
       <c r="F57" t="n">
-        <v>5854.299629556735</v>
+        <v>3252.388683087076</v>
       </c>
       <c r="G57" t="n">
-        <v>1.351792665398148</v>
+        <v>2.433226797716667</v>
       </c>
       <c r="H57" t="n">
-        <v>1648.505624279753</v>
+        <v>1228.723545726752</v>
       </c>
       <c r="I57" t="n">
-        <v>1464.956424092795</v>
+        <v>1091.914049448833</v>
       </c>
       <c r="J57" t="n">
         <v>1.137983607668575</v>
@@ -3526,16 +3526,16 @@
         <v>3.160754102411518</v>
       </c>
       <c r="F58" t="n">
-        <v>5839.339929263487</v>
+        <v>3244.077738479715</v>
       </c>
       <c r="G58" t="n">
-        <v>1.326957576969664</v>
+        <v>2.388523638545396</v>
       </c>
       <c r="H58" t="n">
-        <v>1646.398034459259</v>
+        <v>1227.152641024315</v>
       </c>
       <c r="I58" t="n">
-        <v>1498.916738209858</v>
+        <v>1117.226573083166</v>
       </c>
       <c r="J58" t="n">
         <v>1.137983607668575</v>
@@ -3579,16 +3579,16 @@
         <v>3.092528319905885</v>
       </c>
       <c r="F59" t="n">
-        <v>5823.909836845614</v>
+        <v>3235.50546491423</v>
       </c>
       <c r="G59" t="n">
-        <v>1.301754623236716</v>
+        <v>2.343158321826089</v>
       </c>
       <c r="H59" t="n">
-        <v>1644.221343384844</v>
+        <v>1225.530231288178</v>
       </c>
       <c r="I59" t="n">
-        <v>1533.157008725564</v>
+        <v>1142.747763896866</v>
       </c>
       <c r="J59" t="n">
         <v>1.137983607668575</v>
@@ -3632,16 +3632,16 @@
         <v>3.023650002306503</v>
       </c>
       <c r="F60" t="n">
-        <v>5808.0256876351</v>
+        <v>3226.680937575055</v>
       </c>
       <c r="G60" t="n">
-        <v>1.276242128179261</v>
+        <v>2.29723583072267</v>
       </c>
       <c r="H60" t="n">
-        <v>1641.977585312789</v>
+        <v>1223.857832763452</v>
       </c>
       <c r="I60" t="n">
-        <v>1567.623835827627</v>
+        <v>1168.437820019848</v>
       </c>
       <c r="J60" t="n">
         <v>1.137983607668575</v>
@@ -3659,10 +3659,10 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O60" t="n">
-        <v>4.79103807172992e-05</v>
+        <v>4.791038071729919e-05</v>
       </c>
       <c r="P60" t="n">
-        <v>0.09523815897620318</v>
+        <v>0.09523815897620316</v>
       </c>
       <c r="Q60" t="n">
         <v>1.692376767233361</v>
@@ -3685,16 +3685,16 @@
         <v>2.954115702075636</v>
       </c>
       <c r="F61" t="n">
-        <v>5791.664403907299</v>
+        <v>3217.591335504055</v>
       </c>
       <c r="G61" t="n">
-        <v>1.250415067763152</v>
+        <v>2.250747121973674</v>
       </c>
       <c r="H61" t="n">
-        <v>1639.663218180571</v>
+        <v>1222.132805352608</v>
       </c>
       <c r="I61" t="n">
-        <v>1602.351052294949</v>
+        <v>1194.321958916609</v>
       </c>
       <c r="J61" t="n">
         <v>1.137983607668575</v>
@@ -3712,10 +3712,10 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O61" t="n">
-        <v>4.781586583300909e-05</v>
+        <v>4.78158658330091e-05</v>
       </c>
       <c r="P61" t="n">
-        <v>0.09502346874277566</v>
+        <v>0.09502346874277567</v>
       </c>
       <c r="Q61" t="n">
         <v>1.692854252072327</v>
@@ -3738,16 +3738,16 @@
         <v>2.884107471245898</v>
       </c>
       <c r="F62" t="n">
-        <v>5774.8460778884</v>
+        <v>3208.247821049111</v>
       </c>
       <c r="G62" t="n">
-        <v>1.224337390236936</v>
+        <v>2.203807302426485</v>
       </c>
       <c r="H62" t="n">
-        <v>1637.280790831076</v>
+        <v>1220.357048850967</v>
       </c>
       <c r="I62" t="n">
-        <v>1637.280806193573</v>
+        <v>1220.357060301496</v>
       </c>
       <c r="J62" t="n">
         <v>1.137983607668575</v>
@@ -3791,16 +3791,16 @@
         <v>2.954777209210877</v>
       </c>
       <c r="F63" t="n">
-        <v>5791.821642513285</v>
+        <v>3217.678690285158</v>
       </c>
       <c r="G63" t="n">
-        <v>1.250661115473871</v>
+        <v>2.251190007852968</v>
       </c>
       <c r="H63" t="n">
-        <v>1639.685475738232</v>
+        <v>1222.149395156589</v>
       </c>
       <c r="I63" t="n">
-        <v>1602.020892121324</v>
+        <v>1194.075872052713</v>
       </c>
       <c r="J63" t="n">
         <v>1.137983607668575</v>
@@ -3821,7 +3821,7 @@
         <v>4.781677454046551e-05</v>
       </c>
       <c r="P63" t="n">
-        <v>0.09502553258020202</v>
+        <v>0.09502553258020201</v>
       </c>
       <c r="Q63" t="n">
         <v>1.692849656190218</v>
@@ -3844,16 +3844,16 @@
         <v>2.989846511728097</v>
       </c>
       <c r="F64" t="n">
-        <v>5800.1135635332</v>
+        <v>3222.285313074</v>
       </c>
       <c r="G64" t="n">
-        <v>1.263695628077842</v>
+        <v>2.274652130540117</v>
       </c>
       <c r="H64" t="n">
-        <v>1640.858792228036</v>
+        <v>1223.023933633364</v>
       </c>
       <c r="I64" t="n">
-        <v>1584.512547089094</v>
+        <v>1181.025922164183</v>
       </c>
       <c r="J64" t="n">
         <v>1.137983607668575</v>
@@ -3897,16 +3897,16 @@
         <v>3.024799496014737</v>
       </c>
       <c r="F65" t="n">
-        <v>5808.293371729392</v>
+        <v>3226.829650960774</v>
       </c>
       <c r="G65" t="n">
-        <v>1.276668474129027</v>
+        <v>2.298003253432248</v>
       </c>
       <c r="H65" t="n">
-        <v>1642.015423146347</v>
+        <v>1223.886035419438</v>
       </c>
       <c r="I65" t="n">
-        <v>1567.049271408205</v>
+        <v>1168.009564986755</v>
       </c>
       <c r="J65" t="n">
         <v>1.137983607668575</v>
@@ -3950,16 +3950,16 @@
         <v>3.059611211057394</v>
       </c>
       <c r="F66" t="n">
-        <v>5816.357974725544</v>
+        <v>3231.309985958636</v>
       </c>
       <c r="G66" t="n">
-        <v>1.289570833200629</v>
+        <v>2.321227499761133</v>
       </c>
       <c r="H66" t="n">
-        <v>1643.154966921415</v>
+        <v>1224.735401200901</v>
       </c>
       <c r="I66" t="n">
-        <v>1549.639302157321</v>
+        <v>1155.032940076369</v>
       </c>
       <c r="J66" t="n">
         <v>1.137983607668575</v>
@@ -4003,16 +4003,16 @@
         <v>3.09426422717204</v>
       </c>
       <c r="F67" t="n">
-        <v>5824.306125721967</v>
+        <v>3235.725625401093</v>
       </c>
       <c r="G67" t="n">
-        <v>1.302396706251556</v>
+        <v>2.344314071252801</v>
       </c>
       <c r="H67" t="n">
-        <v>1644.277283085401</v>
+        <v>1225.571926279207</v>
       </c>
       <c r="I67" t="n">
-        <v>1532.287193737977</v>
+        <v>1142.099442083502</v>
       </c>
       <c r="J67" t="n">
         <v>1.137983607668575</v>
@@ -4056,16 +4056,16 @@
         <v>3.128712711852604</v>
       </c>
       <c r="F68" t="n">
-        <v>5832.13021122486</v>
+        <v>3240.072339569366</v>
       </c>
       <c r="G68" t="n">
-        <v>1.315129625799622</v>
+        <v>2.36723332643932</v>
       </c>
       <c r="H68" t="n">
-        <v>1645.381332918558</v>
+        <v>1226.39483643837</v>
       </c>
       <c r="I68" t="n">
-        <v>1515.011840601278</v>
+        <v>1129.223154100511</v>
       </c>
       <c r="J68" t="n">
         <v>1.137983607668575</v>
@@ -4083,10 +4083,10 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O68" t="n">
-        <v>4.804948090789642e-05</v>
+        <v>4.804948090789641e-05</v>
       </c>
       <c r="P68" t="n">
-        <v>0.09555423461357922</v>
+        <v>0.0955542346135792</v>
       </c>
       <c r="Q68" t="n">
         <v>1.691675994015594</v>
@@ -4109,16 +4109,16 @@
         <v>3.162954512034217</v>
       </c>
       <c r="F69" t="n">
-        <v>5839.8326890625</v>
+        <v>3244.351493923611</v>
       </c>
       <c r="G69" t="n">
-        <v>1.327769314324916</v>
+        <v>2.389984765784849</v>
       </c>
       <c r="H69" t="n">
-        <v>1646.467499643674</v>
+        <v>1227.204417315788</v>
       </c>
       <c r="I69" t="n">
-        <v>1497.810378143248</v>
+        <v>1116.401940977656</v>
       </c>
       <c r="J69" t="n">
         <v>1.137983607668575</v>
@@ -4139,7 +4139,7 @@
         <v>4.809389328215255e-05</v>
       </c>
       <c r="P69" t="n">
-        <v>0.09565517985247829</v>
+        <v>0.09565517985247828</v>
       </c>
       <c r="Q69" t="n">
         <v>1.691452736984708</v>
@@ -4162,16 +4162,16 @@
         <v>3.196959191571065</v>
       </c>
       <c r="F70" t="n">
-        <v>5847.409650554203</v>
+        <v>3248.560916974557</v>
       </c>
       <c r="G70" t="n">
-        <v>1.340305064615365</v>
+        <v>2.412549116307658</v>
       </c>
       <c r="H70" t="n">
-        <v>1647.535267985477</v>
+        <v>1228.000284847953</v>
       </c>
       <c r="I70" t="n">
-        <v>1480.694262226463</v>
+        <v>1103.644341410756</v>
       </c>
       <c r="J70" t="n">
         <v>1.137983607668575</v>
@@ -4215,16 +4215,16 @@
         <v>3.230725214711363</v>
       </c>
       <c r="F71" t="n">
-        <v>5854.863678764587</v>
+        <v>3252.702043758104</v>
       </c>
       <c r="G71" t="n">
-        <v>1.352736846584217</v>
+        <v>2.43492632385159</v>
       </c>
       <c r="H71" t="n">
-        <v>1648.585037356845</v>
+        <v>1228.782736739645</v>
       </c>
       <c r="I71" t="n">
-        <v>1463.660549907555</v>
+        <v>1090.948161859338</v>
       </c>
       <c r="J71" t="n">
         <v>1.137983607668575</v>
@@ -4268,16 +4268,16 @@
         <v>3.264247305223249</v>
       </c>
       <c r="F72" t="n">
-        <v>5862.196443037104</v>
+        <v>3256.77580168728</v>
       </c>
       <c r="G72" t="n">
-        <v>1.365063243765367</v>
+        <v>2.457113838777662</v>
       </c>
       <c r="H72" t="n">
-        <v>1649.617076995811</v>
+        <v>1229.551973669046</v>
       </c>
       <c r="I72" t="n">
-        <v>1446.708269986233</v>
+        <v>1078.312678433445</v>
       </c>
       <c r="J72" t="n">
         <v>1.137983607668575</v>
@@ -4295,7 +4295,7 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O72" t="n">
-        <v>4.822274290369143e-05</v>
+        <v>4.822274290369142e-05</v>
       </c>
       <c r="P72" t="n">
         <v>0.09594811851157536</v>
@@ -4321,16 +4321,16 @@
         <v>3.297500775005354</v>
       </c>
       <c r="F73" t="n">
-        <v>5869.405357645241</v>
+        <v>3260.780754247356</v>
       </c>
       <c r="G73" t="n">
-        <v>1.377275710349352</v>
+        <v>2.479096278628834</v>
       </c>
       <c r="H73" t="n">
-        <v>1650.63105657126</v>
+        <v>1230.30774942188</v>
       </c>
       <c r="I73" t="n">
-        <v>1429.846402635536</v>
+        <v>1065.744584558864</v>
       </c>
       <c r="J73" t="n">
         <v>1.137983607668575</v>
@@ -4374,16 +4374,16 @@
         <v>3.330481526563261</v>
       </c>
       <c r="F74" t="n">
-        <v>5876.492325169285</v>
+        <v>3264.717958427381</v>
       </c>
       <c r="G74" t="n">
-        <v>1.389373278601697</v>
+        <v>2.500871901483054</v>
       </c>
       <c r="H74" t="n">
-        <v>1651.627276712362</v>
+        <v>1231.050288073899</v>
       </c>
       <c r="I74" t="n">
-        <v>1413.073654904027</v>
+        <v>1053.242916526495</v>
       </c>
       <c r="J74" t="n">
         <v>1.137983607668575</v>
@@ -4427,16 +4427,16 @@
         <v>3.363154328134622</v>
       </c>
       <c r="F75" t="n">
-        <v>5883.452569216041</v>
+        <v>3268.584760675578</v>
       </c>
       <c r="G75" t="n">
-        <v>1.401343573433875</v>
+        <v>2.522418432180975</v>
       </c>
       <c r="H75" t="n">
-        <v>1652.605098714964</v>
+        <v>1231.779113563137</v>
       </c>
       <c r="I75" t="n">
-        <v>1396.404745352298</v>
+        <v>1040.818644903674</v>
       </c>
       <c r="J75" t="n">
         <v>1.137983607668575</v>
@@ -4480,16 +4480,16 @@
         <v>3.395532271507682</v>
       </c>
       <c r="F76" t="n">
-        <v>5890.291627568778</v>
+        <v>3272.38423753821</v>
       </c>
       <c r="G76" t="n">
-        <v>1.413191938686272</v>
+        <v>2.54374548963529</v>
       </c>
       <c r="H76" t="n">
-        <v>1653.565332521336</v>
+        <v>1232.494829584917</v>
       </c>
       <c r="I76" t="n">
-        <v>1379.82993552638</v>
+        <v>1028.464511075379</v>
       </c>
       <c r="J76" t="n">
         <v>1.137983607668575</v>
@@ -4533,16 +4533,16 @@
         <v>3.427571951842722</v>
       </c>
       <c r="F77" t="n">
-        <v>5897.003055714872</v>
+        <v>3276.112808730485</v>
       </c>
       <c r="G77" t="n">
-        <v>1.424903042094717</v>
+        <v>2.56482547577049</v>
       </c>
       <c r="H77" t="n">
-        <v>1654.507104694697</v>
+        <v>1233.196785117902</v>
       </c>
       <c r="I77" t="n">
-        <v>1363.368559671919</v>
+        <v>1016.194925937463</v>
       </c>
       <c r="J77" t="n">
         <v>1.137983607668575</v>
@@ -4560,7 +4560,7 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O77" t="n">
-        <v>4.842298960520633e-05</v>
+        <v>4.842298960520634e-05</v>
       </c>
       <c r="P77" t="n">
         <v>0.09640359977428875</v>
@@ -4586,16 +4586,16 @@
         <v>3.45929816677286</v>
       </c>
       <c r="F78" t="n">
-        <v>5903.594717162098</v>
+        <v>3279.774842867832</v>
       </c>
       <c r="G78" t="n">
-        <v>1.436486495284035</v>
+        <v>2.585675691511262</v>
       </c>
       <c r="H78" t="n">
-        <v>1655.431549249953</v>
+        <v>1233.885825406895</v>
       </c>
       <c r="I78" t="n">
-        <v>1347.005137336215</v>
+        <v>1003.998351041739</v>
       </c>
       <c r="J78" t="n">
         <v>1.137983607668575</v>
@@ -4639,16 +4639,16 @@
         <v>3.490672506051206</v>
       </c>
       <c r="F79" t="n">
-        <v>5910.06123279235</v>
+        <v>3283.367351551306</v>
       </c>
       <c r="G79" t="n">
-        <v>1.447928814898503</v>
+        <v>2.606271866817305</v>
       </c>
       <c r="H79" t="n">
-        <v>1656.337941431601</v>
+        <v>1234.561410251041</v>
       </c>
       <c r="I79" t="n">
-        <v>1330.756880529258</v>
+        <v>991.8876154629957</v>
       </c>
       <c r="J79" t="n">
         <v>1.137983607668575</v>
@@ -4692,16 +4692,16 @@
         <v>3.521695184194943</v>
       </c>
       <c r="F80" t="n">
-        <v>5916.405243294204</v>
+        <v>3286.891801830113</v>
       </c>
       <c r="G80" t="n">
-        <v>1.459230627385644</v>
+        <v>2.626615129294159</v>
       </c>
       <c r="H80" t="n">
-        <v>1657.226680697725</v>
+        <v>1235.223837388817</v>
       </c>
       <c r="I80" t="n">
-        <v>1314.621301831315</v>
+        <v>979.8608651880296</v>
       </c>
       <c r="J80" t="n">
         <v>1.137983607668575</v>
@@ -4745,16 +4745,16 @@
         <v>3.552345511038582</v>
       </c>
       <c r="F81" t="n">
-        <v>5922.625063855261</v>
+        <v>3290.347257697367</v>
       </c>
       <c r="G81" t="n">
-        <v>1.47038493978742</v>
+        <v>2.646692891617355</v>
       </c>
       <c r="H81" t="n">
-        <v>1658.097559594232</v>
+        <v>1235.87295219307</v>
       </c>
       <c r="I81" t="n">
-        <v>1298.606966126286</v>
+        <v>967.9244841043807</v>
       </c>
       <c r="J81" t="n">
         <v>1.137983607668575</v>
@@ -4798,16 +4798,16 @@
         <v>3.582633726643859</v>
       </c>
       <c r="F82" t="n">
-        <v>5928.725246941288</v>
+        <v>3293.736248300716</v>
       </c>
       <c r="G82" t="n">
-        <v>1.481396013973413</v>
+        <v>2.666512825152142</v>
       </c>
       <c r="H82" t="n">
-        <v>1658.951243175081</v>
+        <v>1236.509250365755</v>
       </c>
       <c r="I82" t="n">
-        <v>1282.706474698323</v>
+        <v>956.0729575348545</v>
       </c>
       <c r="J82" t="n">
         <v>1.137983607668575</v>
@@ -4828,7 +4828,7 @@
         <v>4.860518261217052e-05</v>
       </c>
       <c r="P82" t="n">
-        <v>0.09681824997443672</v>
+        <v>0.09681824997443675</v>
       </c>
       <c r="Q82" t="n">
         <v>1.688899375687884</v>
@@ -4851,16 +4851,16 @@
         <v>3.612532142018463</v>
       </c>
       <c r="F83" t="n">
-        <v>5934.702635775903</v>
+        <v>3297.057019875502</v>
       </c>
       <c r="G83" t="n">
-        <v>1.492254313629442</v>
+        <v>2.686057764532996</v>
       </c>
       <c r="H83" t="n">
-        <v>1659.787316537137</v>
+        <v>1237.132422656333</v>
       </c>
       <c r="I83" t="n">
-        <v>1266.93249638697</v>
+        <v>944.3157282749236</v>
       </c>
       <c r="J83" t="n">
         <v>1.137983607668575</v>
@@ -4904,16 +4904,16 @@
         <v>3.859460330023382</v>
       </c>
       <c r="F84" t="n">
-        <v>5982.472599045323</v>
+        <v>3323.595888358513</v>
       </c>
       <c r="G84" t="n">
-        <v>1.581524592010698</v>
+        <v>2.846744265619257</v>
       </c>
       <c r="H84" t="n">
-        <v>1666.453957693715</v>
+        <v>1242.101443592235</v>
       </c>
       <c r="I84" t="n">
-        <v>1133.007075260003</v>
+        <v>844.4936130898625</v>
       </c>
       <c r="J84" t="n">
         <v>1.137983607668575</v>
@@ -4957,16 +4957,16 @@
         <v>4.029088869734113</v>
       </c>
       <c r="F85" t="n">
-        <v>6013.755278693647</v>
+        <v>3340.975154829804</v>
       </c>
       <c r="G85" t="n">
-        <v>1.642446310058425</v>
+        <v>2.956403358105165</v>
       </c>
       <c r="H85" t="n">
-        <v>1670.805266695419</v>
+        <v>1245.344717831874</v>
       </c>
       <c r="I85" t="n">
-        <v>1035.965390345096</v>
+        <v>772.1630117162466</v>
       </c>
       <c r="J85" t="n">
         <v>1.137983607668575</v>
@@ -5010,16 +5010,16 @@
         <v>4.15745377347853</v>
       </c>
       <c r="F86" t="n">
-        <v>6036.667892300281</v>
+        <v>3353.704384611267</v>
       </c>
       <c r="G86" t="n">
-        <v>1.688341250161275</v>
+        <v>3.039014250290296</v>
       </c>
       <c r="H86" t="n">
-        <v>1673.985153354573</v>
+        <v>1247.714865408745</v>
       </c>
       <c r="I86" t="n">
-        <v>958.6763067776326</v>
+        <v>714.5551301244095</v>
       </c>
       <c r="J86" t="n">
         <v>1.137983607668575</v>
@@ -5040,7 +5040,7 @@
         <v>4.922296276752788e-05</v>
       </c>
       <c r="P86" t="n">
-        <v>0.09822589526396647</v>
+        <v>0.09822589526396645</v>
       </c>
       <c r="Q86" t="n">
         <v>1.685854848209281</v>
@@ -5063,16 +5063,16 @@
         <v>4.259317835813075</v>
       </c>
       <c r="F87" t="n">
-        <v>6054.41194917986</v>
+        <v>3363.562193988811</v>
       </c>
       <c r="G87" t="n">
-        <v>1.724638860223489</v>
+        <v>3.104349948402279</v>
       </c>
       <c r="H87" t="n">
-        <v>1676.44358679991</v>
+        <v>1249.547273509389</v>
       </c>
       <c r="I87" t="n">
-        <v>894.2438585872934</v>
+        <v>666.530018754299</v>
       </c>
       <c r="J87" t="n">
         <v>1.137983607668575</v>
@@ -5116,16 +5116,16 @@
         <v>4.342527683138555</v>
       </c>
       <c r="F88" t="n">
-        <v>6068.631949349033</v>
+        <v>3371.462194082796</v>
       </c>
       <c r="G88" t="n">
-        <v>1.754211213023757</v>
+        <v>3.157580183442762</v>
       </c>
       <c r="H88" t="n">
-        <v>1678.41116408222</v>
+        <v>1251.013819027466</v>
       </c>
       <c r="I88" t="n">
-        <v>839.0440838133586</v>
+        <v>625.3865358419002</v>
       </c>
       <c r="J88" t="n">
         <v>1.137983607668575</v>
@@ -5169,16 +5169,16 @@
         <v>4.411907177283031</v>
       </c>
       <c r="F89" t="n">
-        <v>6080.306543582027</v>
+        <v>3377.948079767793</v>
       </c>
       <c r="G89" t="n">
-        <v>1.778815797564487</v>
+        <v>3.201868435616078</v>
       </c>
       <c r="H89" t="n">
-        <v>1680.024818906191</v>
+        <v>1252.216566320339</v>
       </c>
       <c r="I89" t="n">
-        <v>790.8503312701735</v>
+        <v>589.4650335827785</v>
       </c>
       <c r="J89" t="n">
         <v>1.137983607668575</v>
@@ -5222,16 +5222,16 @@
         <v>4.470625073399709</v>
       </c>
       <c r="F90" t="n">
-        <v>6090.061720174767</v>
+        <v>3383.367622319315</v>
       </c>
       <c r="G90" t="n">
-        <v>1.799602723137722</v>
+        <v>3.2392849016479</v>
       </c>
       <c r="H90" t="n">
-        <v>1681.371985400276</v>
+        <v>1253.2206849396</v>
       </c>
       <c r="I90" t="n">
-        <v>748.2031992949264</v>
+        <v>557.6777382020928</v>
       </c>
       <c r="J90" t="n">
         <v>1.137983607668575</v>
@@ -5275,16 +5275,16 @@
         <v>4.520900793576013</v>
       </c>
       <c r="F91" t="n">
-        <v>6098.325278306118</v>
+        <v>3387.958487947843</v>
       </c>
       <c r="G91" t="n">
-        <v>1.817374699423914</v>
+        <v>3.271274458963045</v>
       </c>
       <c r="H91" t="n">
-        <v>1682.512319092305</v>
+        <v>1254.070639490404</v>
       </c>
       <c r="I91" t="n">
-        <v>710.0760071273957</v>
+        <v>529.2594070428272</v>
       </c>
       <c r="J91" t="n">
         <v>1.137983607668575</v>
@@ -5305,7 +5305,7 @@
         <v>4.957435379452275e-05</v>
       </c>
       <c r="P91" t="n">
-        <v>0.09902768742293246</v>
+        <v>0.09902768742293244</v>
       </c>
       <c r="Q91" t="n">
         <v>1.684142552224828</v>
@@ -5328,16 +5328,16 @@
         <v>4.564347872805762</v>
       </c>
       <c r="F92" t="n">
-        <v>6105.401655924818</v>
+        <v>3391.889808847121</v>
       </c>
       <c r="G92" t="n">
-        <v>1.832713516772746</v>
+        <v>3.298884330190942</v>
       </c>
       <c r="H92" t="n">
-        <v>1683.488213299152</v>
+        <v>1254.798028085523</v>
       </c>
       <c r="I92" t="n">
-        <v>675.7185860373086</v>
+        <v>503.6508973464873</v>
       </c>
       <c r="J92" t="n">
         <v>1.137983607668575</v>
@@ -5381,16 +5381,16 @@
         <v>4.602208062396395</v>
       </c>
       <c r="F93" t="n">
-        <v>6111.519977539523</v>
+        <v>3395.288876410846</v>
       </c>
       <c r="G93" t="n">
-        <v>1.846065471317784</v>
+        <v>3.322917848372011</v>
       </c>
       <c r="H93" t="n">
-        <v>1684.331527442617</v>
+        <v>1255.426597335915</v>
       </c>
       <c r="I93" t="n">
-        <v>644.5381392529137</v>
+        <v>480.4103644869135</v>
       </c>
       <c r="J93" t="n">
         <v>1.137983607668575</v>
@@ -5434,16 +5434,16 @@
         <v>4.635423028375461</v>
       </c>
       <c r="F94" t="n">
-        <v>6116.851302407316</v>
+        <v>3398.25072355962</v>
       </c>
       <c r="G94" t="n">
-        <v>1.857768252893442</v>
+        <v>3.343982855208196</v>
       </c>
       <c r="H94" t="n">
-        <v>1685.066022388398</v>
+        <v>1255.974057545214</v>
       </c>
       <c r="I94" t="n">
-        <v>616.083116196051</v>
+        <v>459.2012425347572</v>
       </c>
       <c r="J94" t="n">
         <v>1.137983607668575</v>
@@ -5487,16 +5487,16 @@
         <v>4.664735051584433</v>
       </c>
       <c r="F95" t="n">
-        <v>6121.528355429296</v>
+        <v>3400.849086349609</v>
       </c>
       <c r="G95" t="n">
-        <v>1.868087447855049</v>
+        <v>3.362557406139088</v>
       </c>
       <c r="H95" t="n">
-        <v>1685.710114978107</v>
+        <v>1256.454135816678</v>
       </c>
       <c r="I95" t="n">
-        <v>589.991158897235</v>
+        <v>439.7534458060325</v>
       </c>
       <c r="J95" t="n">
         <v>1.137983607668575</v>
@@ -5540,16 +5540,16 @@
         <v>4.690733946998515</v>
       </c>
       <c r="F96" t="n">
-        <v>6125.655200366585</v>
+        <v>3403.141777981436</v>
       </c>
       <c r="G96" t="n">
-        <v>1.877233688903897</v>
+        <v>3.379020640027015</v>
       </c>
       <c r="H96" t="n">
-        <v>1686.278232266912</v>
+        <v>1256.877585442332</v>
       </c>
       <c r="I96" t="n">
-        <v>565.9706002428243</v>
+        <v>421.8495784697714</v>
       </c>
       <c r="J96" t="n">
         <v>1.137983607668575</v>
@@ -5570,10 +5570,10 @@
         <v>4.972976825700964e-05</v>
       </c>
       <c r="P96" t="n">
-        <v>0.09938256626334581</v>
+        <v>0.0993825662633458</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.683389650626069</v>
+        <v>1.68338965062607</v>
       </c>
     </row>
     <row r="97">
@@ -5593,16 +5593,16 @@
         <v>4.713902009541136</v>
       </c>
       <c r="F97" t="n">
-        <v>6129.31580117067</v>
+        <v>3405.175445094817</v>
       </c>
       <c r="G97" t="n">
-        <v>1.885378882739611</v>
+        <v>3.393681988931299</v>
       </c>
       <c r="H97" t="n">
-        <v>1686.782004462239</v>
+        <v>1257.253075066973</v>
       </c>
       <c r="I97" t="n">
-        <v>543.776540223207</v>
+        <v>405.3071028362464</v>
       </c>
       <c r="J97" t="n">
         <v>1.137983607668575</v>
@@ -5646,16 +5646,16 @@
         <v>4.734638922109477</v>
       </c>
       <c r="F98" t="n">
-        <v>6132.578891576222</v>
+        <v>3406.988273097902</v>
       </c>
       <c r="G98" t="n">
-        <v>1.892665241084958</v>
+        <v>3.406797433952925</v>
       </c>
       <c r="H98" t="n">
-        <v>1687.230944440626</v>
+        <v>1257.587695170137</v>
       </c>
       <c r="I98" t="n">
-        <v>523.1995022854763</v>
+        <v>389.9698843014605</v>
       </c>
       <c r="J98" t="n">
         <v>1.137983607668575</v>
@@ -5699,16 +5699,16 @@
         <v>4.753270704599005</v>
       </c>
       <c r="F99" t="n">
-        <v>6135.500032216889</v>
+        <v>3408.611129009383</v>
       </c>
       <c r="G99" t="n">
-        <v>1.899208616962893</v>
+        <v>3.418575510533208</v>
       </c>
       <c r="H99" t="n">
-        <v>1687.632737242019</v>
+        <v>1257.887173842399</v>
       </c>
       <c r="I99" t="n">
-        <v>504.0667312638277</v>
+        <v>375.7091587673457</v>
       </c>
       <c r="J99" t="n">
         <v>1.137983607668575</v>
@@ -5726,10 +5726,10 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O99" t="n">
-        <v>4.97857009325713e-05</v>
+        <v>4.978570093257129e-05</v>
       </c>
       <c r="P99" t="n">
-        <v>0.0995103237003738</v>
+        <v>0.09951032370037378</v>
       </c>
       <c r="Q99" t="n">
         <v>1.683119343942919</v>
@@ -5752,16 +5752,16 @@
         <v>4.770069660511607</v>
       </c>
       <c r="F100" t="n">
-        <v>6138.125204290714</v>
+        <v>3410.069557939285</v>
       </c>
       <c r="G100" t="n">
-        <v>1.905105648715035</v>
+        <v>3.429190167687064</v>
       </c>
       <c r="H100" t="n">
-        <v>1687.993738995278</v>
+        <v>1258.156248662493</v>
       </c>
       <c r="I100" t="n">
-        <v>486.2306030467446</v>
+        <v>362.4148937177457</v>
       </c>
       <c r="J100" t="n">
         <v>1.137983607668575</v>
@@ -5782,7 +5782,7 @@
         <v>4.98006111030874e-05</v>
       </c>
       <c r="P100" t="n">
-        <v>0.09954438391338441</v>
+        <v>0.0995443839133844</v>
       </c>
       <c r="Q100" t="n">
         <v>1.683047345924785</v>
@@ -5805,16 +5805,16 @@
         <v>4.785263544282877</v>
       </c>
       <c r="F101" t="n">
-        <v>6140.492564229276</v>
+        <v>3411.384757905153</v>
       </c>
       <c r="G101" t="n">
-        <v>1.910437074423194</v>
+        <v>3.438786733961749</v>
       </c>
       <c r="H101" t="n">
-        <v>1688.319221401663</v>
+        <v>1258.398848924546</v>
       </c>
       <c r="I101" t="n">
-        <v>469.5655212784299</v>
+        <v>349.9934751562311</v>
       </c>
       <c r="J101" t="n">
         <v>1.137983607668575</v>
@@ -5858,16 +5858,16 @@
         <v>4.799044730566691</v>
       </c>
       <c r="F102" t="n">
-        <v>6142.634105971689</v>
+        <v>3412.574503317604</v>
       </c>
       <c r="G102" t="n">
-        <v>1.915271019602086</v>
+        <v>3.447487835283755</v>
       </c>
       <c r="H102" t="n">
-        <v>1688.613602582165</v>
+        <v>1258.618267701511</v>
       </c>
       <c r="I102" t="n">
-        <v>453.9633702473208</v>
+        <v>338.3643183893049</v>
       </c>
       <c r="J102" t="n">
         <v>1.137983607668575</v>
@@ -5888,7 +5888,7 @@
         <v>4.982621581501233e-05</v>
       </c>
       <c r="P102" t="n">
-        <v>0.09960287771915494</v>
+        <v>0.09960287771915492</v>
       </c>
       <c r="Q102" t="n">
         <v>1.682923763717153</v>
@@ -5911,16 +5911,16 @@
         <v>4.811582786671714</v>
       </c>
       <c r="F103" t="n">
-        <v>6144.577780499279</v>
+        <v>3413.654322499599</v>
       </c>
       <c r="G103" t="n">
-        <v>1.91966745721127</v>
+        <v>3.455401422980286</v>
       </c>
       <c r="H103" t="n">
-        <v>1688.880740067162</v>
+        <v>1258.817380226775</v>
       </c>
       <c r="I103" t="n">
-        <v>439.3233702860551</v>
+        <v>327.4523066879768</v>
       </c>
       <c r="J103" t="n">
         <v>1.137983607668575</v>
@@ -5938,7 +5938,7 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O103" t="n">
-        <v>4.983725162540825e-05</v>
+        <v>4.983725162540824e-05</v>
       </c>
       <c r="P103" t="n">
         <v>0.09962809028404634</v>
@@ -5964,16 +5964,16 @@
         <v>4.823019904762076</v>
       </c>
       <c r="F104" t="n">
-        <v>6146.346907632087</v>
+        <v>3414.637170906715</v>
       </c>
       <c r="G104" t="n">
-        <v>1.923676642283448</v>
+        <v>3.462617956110206</v>
       </c>
       <c r="H104" t="n">
-        <v>1689.123851133238</v>
+        <v>1258.998584516719</v>
       </c>
       <c r="I104" t="n">
-        <v>425.5604791070305</v>
+        <v>317.1940532735665</v>
       </c>
       <c r="J104" t="n">
         <v>1.137983607668575</v>
@@ -6017,16 +6017,16 @@
         <v>4.833477869490052</v>
       </c>
       <c r="F105" t="n">
-        <v>6147.961352738449</v>
+        <v>3415.534084854694</v>
       </c>
       <c r="G105" t="n">
-        <v>1.927341584524423</v>
+        <v>3.469214852143962</v>
       </c>
       <c r="H105" t="n">
-        <v>1689.345675472689</v>
+        <v>1259.163922617411</v>
       </c>
       <c r="I105" t="n">
-        <v>412.6005011119597</v>
+        <v>307.5342560122731</v>
       </c>
       <c r="J105" t="n">
         <v>1.137983607668575</v>
@@ -6070,16 +6070,16 @@
         <v>4.843062804523852</v>
       </c>
       <c r="F106" t="n">
-        <v>6149.438330529584</v>
+        <v>3416.354628071992</v>
       </c>
       <c r="G106" t="n">
-        <v>1.930699733416083</v>
+        <v>3.475259520148948</v>
       </c>
       <c r="H106" t="n">
-        <v>1689.548586329042</v>
+        <v>1259.315163440136</v>
       </c>
       <c r="I106" t="n">
-        <v>400.376764483932</v>
+        <v>298.4232206658318</v>
       </c>
       <c r="J106" t="n">
         <v>1.137983607668575</v>
@@ -6097,10 +6097,10 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O106" t="n">
-        <v>4.986484431145564e-05</v>
+        <v>4.986484431145565e-05</v>
       </c>
       <c r="P106" t="n">
-        <v>0.09969113240556672</v>
+        <v>0.09969113240556673</v>
       </c>
       <c r="Q106" t="n">
         <v>1.682737458948948</v>
@@ -6123,16 +6123,16 @@
         <v>4.851866340986425</v>
       </c>
       <c r="F107" t="n">
-        <v>6150.79263839742</v>
+        <v>3417.1070213319</v>
       </c>
       <c r="G107" t="n">
-        <v>1.933783403911628</v>
+        <v>3.480810127040929</v>
       </c>
       <c r="H107" t="n">
-        <v>1689.734623073537</v>
+        <v>1259.453827042471</v>
       </c>
       <c r="I107" t="n">
-        <v>388.8306822302975</v>
+        <v>289.8172790681882</v>
       </c>
       <c r="J107" t="n">
         <v>1.137983607668575</v>
@@ -6150,10 +6150,10 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O107" t="n">
-        <v>4.987253136865434e-05</v>
+        <v>4.987253136865435e-05</v>
       </c>
       <c r="P107" t="n">
-        <v>0.09970869622256048</v>
+        <v>0.0997086962225605</v>
       </c>
       <c r="Q107" t="n">
         <v>1.68270040404318</v>
@@ -6176,16 +6176,16 @@
         <v>4.859966326445899</v>
       </c>
       <c r="F108" t="n">
-        <v>6152.036808154342</v>
+        <v>3417.798226752412</v>
       </c>
       <c r="G108" t="n">
-        <v>1.936620037899508</v>
+        <v>3.485916068219114</v>
       </c>
       <c r="H108" t="n">
-        <v>1689.905512464264</v>
+        <v>1259.581200473904</v>
       </c>
       <c r="I108" t="n">
-        <v>377.9128111657433</v>
+        <v>281.6795784448812</v>
       </c>
       <c r="J108" t="n">
         <v>1.137983607668575</v>
@@ -6229,16 +6229,16 @@
         <v>4.867436165729063</v>
       </c>
       <c r="F109" t="n">
-        <v>6153.182572506784</v>
+        <v>3418.434762503769</v>
       </c>
       <c r="G109" t="n">
-        <v>1.939235485146677</v>
+        <v>3.490623873264019</v>
       </c>
       <c r="H109" t="n">
-        <v>1690.062870377765</v>
+        <v>1259.6984881377</v>
       </c>
       <c r="I109" t="n">
-        <v>367.5717508323752</v>
+        <v>273.971807156602</v>
       </c>
       <c r="J109" t="n">
         <v>1.137983607668575</v>
@@ -6259,7 +6259,7 @@
         <v>4.988609540625948e-05</v>
       </c>
       <c r="P109" t="n">
-        <v>0.09973968903540176</v>
+        <v>0.09973968903540174</v>
       </c>
       <c r="Q109" t="n">
         <v>1.682635035494246</v>
@@ -6282,16 +6282,16 @@
         <v>4.874337618445908</v>
       </c>
       <c r="F110" t="n">
-        <v>6154.239782213654</v>
+        <v>3419.022101229808</v>
       </c>
       <c r="G110" t="n">
-        <v>1.941651488213829</v>
+        <v>3.494972678784892</v>
       </c>
       <c r="H110" t="n">
-        <v>1690.208053306244</v>
+        <v>1259.80670110345</v>
       </c>
       <c r="I110" t="n">
-        <v>357.7648915334404</v>
+        <v>266.6622058105373</v>
       </c>
       <c r="J110" t="n">
         <v>1.137983607668575</v>
@@ -6335,16 +6335,16 @@
         <v>4.880724716337389</v>
       </c>
       <c r="F111" t="n">
-        <v>6155.217028352085</v>
+        <v>3419.565015751159</v>
       </c>
       <c r="G111" t="n">
-        <v>1.943887060686912</v>
+        <v>3.498996709236441</v>
       </c>
       <c r="H111" t="n">
-        <v>1690.342244025619</v>
+        <v>1259.906720960274</v>
       </c>
       <c r="I111" t="n">
-        <v>348.454395727521</v>
+        <v>259.7225719684498</v>
       </c>
       <c r="J111" t="n">
         <v>1.137983607668575</v>
@@ -6388,16 +6388,16 @@
         <v>4.886646159421838</v>
       </c>
       <c r="F112" t="n">
-        <v>6156.12202446631</v>
+        <v>3420.067791370172</v>
       </c>
       <c r="G112" t="n">
-        <v>1.945959330678993</v>
+        <v>3.502726795222187</v>
       </c>
       <c r="H112" t="n">
-        <v>1690.466504220676</v>
+        <v>1259.999339041289</v>
       </c>
       <c r="I112" t="n">
-        <v>339.6046782169768</v>
+        <v>253.1263819900341</v>
       </c>
       <c r="J112" t="n">
         <v>1.137983607668575</v>
@@ -6418,7 +6418,7 @@
         <v>4.990277605755113e-05</v>
       </c>
       <c r="P112" t="n">
-        <v>0.09977780472828407</v>
+        <v>0.09977780472828408</v>
       </c>
       <c r="Q112" t="n">
         <v>1.682554675035237</v>
@@ -6441,16 +6441,16 @@
         <v>4.892144511904827</v>
       </c>
       <c r="F113" t="n">
-        <v>6156.961495640762</v>
+        <v>3420.534164244868</v>
       </c>
       <c r="G113" t="n">
-        <v>1.947883263147227</v>
+        <v>3.506189873665009</v>
       </c>
       <c r="H113" t="n">
-        <v>1690.581759370021</v>
+        <v>1260.085245157519</v>
       </c>
       <c r="I113" t="n">
-        <v>331.1843649740609</v>
+        <v>246.8502510557002</v>
       </c>
       <c r="J113" t="n">
         <v>1.137983607668575</v>
@@ -6494,16 +6494,16 @@
         <v>4.897257669095048</v>
       </c>
       <c r="F114" t="n">
-        <v>6157.74141273684</v>
+        <v>3420.967451520467</v>
       </c>
       <c r="G114" t="n">
-        <v>1.949672176382425</v>
+        <v>3.509409917488364</v>
       </c>
       <c r="H114" t="n">
-        <v>1690.688831004723</v>
+        <v>1260.165051642071</v>
       </c>
       <c r="I114" t="n">
-        <v>323.1648654790817</v>
+        <v>240.8728690502673</v>
       </c>
       <c r="J114" t="n">
         <v>1.137983607668575</v>
@@ -6547,16 +6547,16 @@
         <v>4.902019801341719</v>
       </c>
       <c r="F115" t="n">
-        <v>6158.467144204232</v>
+        <v>3421.370635669018</v>
       </c>
       <c r="G115" t="n">
-        <v>1.95133807470105</v>
+        <v>3.512408534461891</v>
       </c>
       <c r="H115" t="n">
-        <v>1690.788457625424</v>
+        <v>1260.239308940824</v>
       </c>
       <c r="I115" t="n">
-        <v>315.5195028865508</v>
+        <v>235.1743522270895</v>
       </c>
       <c r="J115" t="n">
         <v>1.137983607668575</v>
@@ -6600,16 +6600,16 @@
         <v>4.906460621735257</v>
       </c>
       <c r="F116" t="n">
-        <v>6159.143350896582</v>
+        <v>3421.746306053657</v>
       </c>
       <c r="G116" t="n">
-        <v>1.952891394274499</v>
+        <v>3.515204509694098</v>
       </c>
       <c r="H116" t="n">
-        <v>1690.881280324711</v>
+        <v>1260.308494895977</v>
       </c>
       <c r="I116" t="n">
-        <v>308.2252472216335</v>
+        <v>229.7375350564169</v>
       </c>
       <c r="J116" t="n">
         <v>1.137983607668575</v>
@@ -6653,16 +6653,16 @@
         <v>4.910607608613803</v>
       </c>
       <c r="F117" t="n">
-        <v>6159.774329917439</v>
+        <v>3422.096849954133</v>
       </c>
       <c r="G117" t="n">
-        <v>1.954341782219232</v>
+        <v>3.517815207994618</v>
       </c>
       <c r="H117" t="n">
-        <v>1690.967890038928</v>
+        <v>1260.373049965478</v>
       </c>
       <c r="I117" t="n">
-        <v>301.2596170131891</v>
+        <v>224.5456608390143</v>
       </c>
       <c r="J117" t="n">
         <v>1.137983607668575</v>
@@ -6706,16 +6706,16 @@
         <v>4.914485564847015</v>
       </c>
       <c r="F118" t="n">
-        <v>6160.363951428971</v>
+        <v>3422.424417460539</v>
       </c>
       <c r="G118" t="n">
-        <v>1.95569794366751</v>
+        <v>3.520256298601518</v>
       </c>
       <c r="H118" t="n">
-        <v>1691.048818911623</v>
+        <v>1260.433370785707</v>
       </c>
       <c r="I118" t="n">
-        <v>294.601728371914</v>
+        <v>219.5831636428427</v>
       </c>
       <c r="J118" t="n">
         <v>1.137983607668575</v>
@@ -6759,16 +6759,16 @@
         <v>4.918116502548497</v>
       </c>
       <c r="F119" t="n">
-        <v>6160.915644660502</v>
+        <v>3422.730913700279</v>
       </c>
       <c r="G119" t="n">
-        <v>1.956967602559449</v>
+        <v>3.522541684607008</v>
       </c>
       <c r="H119" t="n">
-        <v>1691.12453840713</v>
+        <v>1260.489808765432</v>
       </c>
       <c r="I119" t="n">
-        <v>288.232882454965</v>
+        <v>214.836106173336</v>
       </c>
       <c r="J119" t="n">
         <v>1.137983607668575</v>
@@ -6812,16 +6812,16 @@
         <v>4.921520273907943</v>
       </c>
       <c r="F120" t="n">
-        <v>6161.432496770785</v>
+        <v>3423.018053761547</v>
       </c>
       <c r="G120" t="n">
-        <v>1.9581577231772</v>
+        <v>3.524683901718961</v>
       </c>
       <c r="H120" t="n">
-        <v>1691.195472908258</v>
+        <v>1260.542680220923</v>
       </c>
       <c r="I120" t="n">
-        <v>282.1358429400371</v>
+        <v>210.2916412343757</v>
       </c>
       <c r="J120" t="n">
         <v>1.137983607668575</v>
@@ -6839,13 +6839,13 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O120" t="n">
-        <v>4.993290559720814e-05</v>
+        <v>4.993290559720815e-05</v>
       </c>
       <c r="P120" t="n">
         <v>0.09984665606998068</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.682409601184257</v>
+        <v>1.682409601184258</v>
       </c>
     </row>
     <row r="121">
@@ -6865,16 +6865,16 @@
         <v>4.924714817836896</v>
       </c>
       <c r="F121" t="n">
-        <v>6161.917292677116</v>
+        <v>3423.28738482062</v>
       </c>
       <c r="G121" t="n">
-        <v>1.959274597131017</v>
+        <v>3.52669427483583</v>
       </c>
       <c r="H121" t="n">
-        <v>1691.262005205376</v>
+        <v>1260.592270467274</v>
       </c>
       <c r="I121" t="n">
-        <v>276.2946950226371</v>
+        <v>205.9379066310631</v>
       </c>
       <c r="J121" t="n">
         <v>1.137983607668575</v>
@@ -6918,16 +6918,16 @@
         <v>4.927716138923753</v>
       </c>
       <c r="F122" t="n">
-        <v>6162.372513861431</v>
+        <v>3423.540285478573</v>
       </c>
       <c r="G122" t="n">
-        <v>1.960323836630762</v>
+        <v>3.528582905935372</v>
       </c>
       <c r="H122" t="n">
-        <v>1691.324476351741</v>
+        <v>1260.638833710576</v>
       </c>
       <c r="I122" t="n">
-        <v>270.6951645925404</v>
+        <v>201.7642630698049</v>
       </c>
       <c r="J122" t="n">
         <v>1.137983607668575</v>
@@ -6948,7 +6948,7 @@
         <v>4.993823807425949e-05</v>
       </c>
       <c r="P122" t="n">
-        <v>0.09985884234404614</v>
+        <v>0.09985884234404616</v>
       </c>
       <c r="Q122" t="n">
         <v>1.682383935706473</v>
@@ -6971,16 +6971,16 @@
         <v>4.93053911241309</v>
       </c>
       <c r="F123" t="n">
-        <v>6162.800462121609</v>
+        <v>3423.778034512005</v>
       </c>
       <c r="G123" t="n">
-        <v>1.961310656422604</v>
+        <v>3.530359181560687</v>
       </c>
       <c r="H123" t="n">
-        <v>1691.383202662081</v>
+        <v>1260.682605717905</v>
       </c>
       <c r="I123" t="n">
-        <v>265.3233639987929</v>
+        <v>197.7603593067404</v>
       </c>
       <c r="J123" t="n">
         <v>1.137983607668575</v>
@@ -7001,10 +7001,10 @@
         <v>4.994066563468513e-05</v>
       </c>
       <c r="P123" t="n">
-        <v>0.09986439009319449</v>
+        <v>0.09986439009319448</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.682372252774637</v>
+        <v>1.682372252774638</v>
       </c>
     </row>
     <row r="124">
@@ -7024,16 +7024,16 @@
         <v>4.933197132592631</v>
       </c>
       <c r="F124" t="n">
-        <v>6163.203207546379</v>
+        <v>3424.001781970211</v>
       </c>
       <c r="G124" t="n">
-        <v>1.962239751278942</v>
+        <v>3.532031552302096</v>
       </c>
       <c r="H124" t="n">
-        <v>1691.438468585562</v>
+        <v>1260.723798505153</v>
       </c>
       <c r="I124" t="n">
-        <v>260.1666317394547</v>
+        <v>193.916758015525</v>
       </c>
       <c r="J124" t="n">
         <v>1.137983607668575</v>
@@ -7054,10 +7054,10 @@
         <v>4.994295018442698e-05</v>
       </c>
       <c r="P124" t="n">
-        <v>0.09986961105254508</v>
+        <v>0.09986961105254506</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.682361258692012</v>
+        <v>1.682361258692013</v>
       </c>
     </row>
     <row r="125">
@@ -7077,16 +7077,16 @@
         <v>4.93570228569111</v>
       </c>
       <c r="F125" t="n">
-        <v>6163.582615908395</v>
+        <v>3424.212564393553</v>
       </c>
       <c r="G125" t="n">
-        <v>1.963115356811042</v>
+        <v>3.533607642259875</v>
       </c>
       <c r="H125" t="n">
-        <v>1691.490530476189</v>
+        <v>1260.762603147313</v>
       </c>
       <c r="I125" t="n">
-        <v>255.2134105565305</v>
+        <v>190.2248449246549</v>
       </c>
       <c r="J125" t="n">
         <v>1.137983607668575</v>
@@ -7130,16 +7130,16 @@
         <v>4.938065693457808</v>
       </c>
       <c r="F126" t="n">
-        <v>6163.940401675784</v>
+        <v>3424.411334264325</v>
       </c>
       <c r="G126" t="n">
-        <v>1.963941369865716</v>
+        <v>3.53509446575829</v>
       </c>
       <c r="H126" t="n">
-        <v>1691.539623876315</v>
+        <v>1260.799195207289</v>
       </c>
       <c r="I126" t="n">
-        <v>250.4527458780481</v>
+        <v>186.6764549782653</v>
       </c>
       <c r="J126" t="n">
         <v>1.137983607668575</v>
@@ -7183,16 +7183,16 @@
         <v>4.940297321944041</v>
       </c>
       <c r="F127" t="n">
-        <v>6164.278099866983</v>
+        <v>3424.598944370546</v>
       </c>
       <c r="G127" t="n">
-        <v>1.964721281947827</v>
+        <v>3.536498307506089</v>
       </c>
       <c r="H127" t="n">
-        <v>1691.585959662391</v>
+        <v>1260.833731863108</v>
       </c>
       <c r="I127" t="n">
-        <v>245.8748199854757</v>
+        <v>183.2642704810159</v>
       </c>
       <c r="J127" t="n">
         <v>1.137983607668575</v>
@@ -7236,16 +7236,16 @@
         <v>4.942406651403568</v>
       </c>
       <c r="F128" t="n">
-        <v>6164.597168113968</v>
+        <v>3424.77620450776</v>
       </c>
       <c r="G128" t="n">
-        <v>1.965458413556456</v>
+        <v>3.537825144401621</v>
       </c>
       <c r="H128" t="n">
-        <v>1691.629738055739</v>
+        <v>1260.866362350932</v>
       </c>
       <c r="I128" t="n">
-        <v>241.4697186572539</v>
+        <v>179.9809018084563</v>
       </c>
       <c r="J128" t="n">
         <v>1.137983607668575</v>
@@ -7263,7 +7263,7 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O128" t="n">
-        <v>4.995085699804763e-05</v>
+        <v>4.995085699804764e-05</v>
       </c>
       <c r="P128" t="n">
         <v>0.09988768102643747</v>
@@ -7289,16 +7289,16 @@
         <v>4.94440208945649</v>
       </c>
       <c r="F129" t="n">
-        <v>6164.898898423807</v>
+        <v>3424.943832457671</v>
       </c>
       <c r="G129" t="n">
-        <v>1.966155709275056</v>
+        <v>3.5390802766951</v>
       </c>
       <c r="H129" t="n">
-        <v>1691.67113652068</v>
+        <v>1260.897218944856</v>
       </c>
       <c r="I129" t="n">
-        <v>237.2287474606662</v>
+        <v>176.8198685130601</v>
       </c>
       <c r="J129" t="n">
         <v>1.137983607668575</v>
@@ -7319,10 +7319,10 @@
         <v>4.995256840003339e-05</v>
       </c>
       <c r="P129" t="n">
-        <v>0.09989159226249823</v>
+        <v>0.09989159226249825</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.682314978649977</v>
+        <v>1.682314978649978</v>
       </c>
     </row>
     <row r="130">
@@ -7342,16 +7342,16 @@
         <v>4.946291350420587</v>
       </c>
       <c r="F130" t="n">
-        <v>6165.184475089069</v>
+        <v>3425.102486160594</v>
       </c>
       <c r="G130" t="n">
-        <v>1.966815870501628</v>
+        <v>3.540268566902931</v>
       </c>
       <c r="H130" t="n">
-        <v>1691.710317715319</v>
+        <v>1260.926422883073</v>
       </c>
       <c r="I130" t="n">
-        <v>233.1437744201019</v>
+        <v>173.7751093780748</v>
       </c>
       <c r="J130" t="n">
         <v>1.137983607668575</v>
@@ -7395,16 +7395,16 @@
         <v>4.948081521663847</v>
       </c>
       <c r="F131" t="n">
-        <v>6165.454985134424</v>
+        <v>3425.252769519124</v>
       </c>
       <c r="G131" t="n">
-        <v>1.967441378766222</v>
+        <v>3.541394481779199</v>
       </c>
       <c r="H131" t="n">
-        <v>1691.747430928795</v>
+        <v>1260.954085439138</v>
       </c>
       <c r="I131" t="n">
-        <v>229.2071856113262</v>
+        <v>170.8409493194457</v>
       </c>
       <c r="J131" t="n">
         <v>1.137983607668575</v>
@@ -7425,7 +7425,7 @@
         <v>4.995572243529876e-05</v>
       </c>
       <c r="P131" t="n">
-        <v>0.09989880054108768</v>
+        <v>0.0998988005410877</v>
       </c>
       <c r="Q131" t="n">
         <v>1.682299804571551</v>
@@ -7448,16 +7448,16 @@
         <v>4.949779197108234</v>
       </c>
       <c r="F132" t="n">
-        <v>6165.711438841671</v>
+        <v>3425.395243800928</v>
       </c>
       <c r="G132" t="n">
-        <v>1.968034542490187</v>
+        <v>3.542462176482337</v>
       </c>
       <c r="H132" t="n">
-        <v>1691.782614900614</v>
+        <v>1260.980310023374</v>
       </c>
       <c r="I132" t="n">
-        <v>225.4116772700188</v>
+        <v>168.0119444326688</v>
       </c>
       <c r="J132" t="n">
         <v>1.137983607668575</v>
@@ -7475,10 +7475,10 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O132" t="n">
-        <v>4.995717697113121e-05</v>
+        <v>4.99571769711312e-05</v>
       </c>
       <c r="P132" t="n">
-        <v>0.0999021247805798</v>
+        <v>0.09990212478057979</v>
       </c>
       <c r="Q132" t="n">
         <v>1.682292807161743</v>
@@ -7501,16 +7501,16 @@
         <v>4.951390443676558</v>
       </c>
       <c r="F133" t="n">
-        <v>6165.954764976617</v>
+        <v>3425.53042498701</v>
       </c>
       <c r="G133" t="n">
-        <v>1.968597485356464</v>
+        <v>3.543475473641635</v>
       </c>
       <c r="H133" t="n">
-        <v>1691.815997168629</v>
+        <v>1261.005191696882</v>
       </c>
       <c r="I133" t="n">
-        <v>221.7504034564681</v>
+        <v>165.2829920555557</v>
       </c>
       <c r="J133" t="n">
         <v>1.137983607668575</v>
@@ -7554,16 +7554,16 @@
         <v>4.952920781699811</v>
       </c>
       <c r="F134" t="n">
-        <v>6166.18580810139</v>
+        <v>3425.65878227855</v>
       </c>
       <c r="G134" t="n">
-        <v>1.969132139550256</v>
+        <v>3.544437851190461</v>
       </c>
       <c r="H134" t="n">
-        <v>1691.84769370289</v>
+        <v>1261.028816898635</v>
       </c>
       <c r="I134" t="n">
-        <v>218.217100564046</v>
+        <v>162.6494235713715</v>
       </c>
       <c r="J134" t="n">
         <v>1.137983607668575</v>
@@ -7584,7 +7584,7 @@
         <v>4.995986741700581e-05</v>
       </c>
       <c r="P134" t="n">
-        <v>0.09990827364211521</v>
+        <v>0.09990827364211523</v>
       </c>
       <c r="Q134" t="n">
         <v>1.682279864710015</v>
@@ -7607,16 +7607,16 @@
         <v>4.954375373794774</v>
       </c>
       <c r="F135" t="n">
-        <v>6166.405357324529</v>
+        <v>3425.780754069183</v>
       </c>
       <c r="G135" t="n">
-        <v>1.969640311821563</v>
+        <v>3.545352561278813</v>
       </c>
       <c r="H135" t="n">
-        <v>1691.877812852077</v>
+        <v>1261.051266386971</v>
       </c>
       <c r="I135" t="n">
-        <v>214.8057249924938</v>
+        <v>160.1067343464472</v>
       </c>
       <c r="J135" t="n">
         <v>1.137983607668575</v>
@@ -7634,10 +7634,10 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O135" t="n">
-        <v>4.996111259746068e-05</v>
+        <v>4.996111259746069e-05</v>
       </c>
       <c r="P135" t="n">
-        <v>0.09991111944747334</v>
+        <v>0.09991111944747337</v>
       </c>
       <c r="Q135" t="n">
         <v>1.682273875010446</v>
@@ -7660,16 +7660,16 @@
         <v>4.955758923270475</v>
       </c>
       <c r="F136" t="n">
-        <v>6166.614131157288</v>
+        <v>3425.896739531827</v>
       </c>
       <c r="G136" t="n">
-        <v>1.970123648053175</v>
+        <v>3.546222566495715</v>
       </c>
       <c r="H136" t="n">
-        <v>1691.906453267799</v>
+        <v>1261.072613692457</v>
       </c>
       <c r="I136" t="n">
-        <v>211.5107481253469</v>
+        <v>157.6508035933707</v>
       </c>
       <c r="J136" t="n">
         <v>1.137983607668575</v>
@@ -7713,16 +7713,16 @@
         <v>4.957075904349878</v>
       </c>
       <c r="F137" t="n">
-        <v>6166.812812425474</v>
+        <v>3426.007118014152</v>
       </c>
       <c r="G137" t="n">
-        <v>1.97058371374214</v>
+        <v>3.547050684735852</v>
       </c>
       <c r="H137" t="n">
-        <v>1691.933708695582</v>
+        <v>1261.092928688883</v>
       </c>
       <c r="I137" t="n">
-        <v>208.3266664116344</v>
+        <v>155.2775292074456</v>
       </c>
       <c r="J137" t="n">
         <v>1.137983607668575</v>
@@ -7766,16 +7766,16 @@
         <v>4.958330335071848</v>
       </c>
       <c r="F138" t="n">
-        <v>6167.002014147615</v>
+        <v>3426.112230082008</v>
       </c>
       <c r="G138" t="n">
-        <v>1.97102191471078</v>
+        <v>3.547839446479404</v>
       </c>
       <c r="H138" t="n">
-        <v>1691.959663295297</v>
+        <v>1261.112274105313</v>
       </c>
       <c r="I138" t="n">
-        <v>205.2485931370102</v>
+        <v>152.9832688468505</v>
       </c>
       <c r="J138" t="n">
         <v>1.137983607668575</v>
@@ -7819,16 +7819,16 @@
         <v>4.959525884974263</v>
       </c>
       <c r="F139" t="n">
-        <v>6167.182295922749</v>
+        <v>3426.212386623749</v>
       </c>
       <c r="G139" t="n">
-        <v>1.971439534769372</v>
+        <v>3.548591162584869</v>
       </c>
       <c r="H139" t="n">
-        <v>1691.98439389062</v>
+        <v>1261.130707202735</v>
       </c>
       <c r="I139" t="n">
-        <v>202.2720606888433</v>
+        <v>150.7646925497389</v>
       </c>
       <c r="J139" t="n">
         <v>1.137983607668575</v>
@@ -7872,16 +7872,16 @@
         <v>4.960666128400759</v>
       </c>
       <c r="F140" t="n">
-        <v>6167.354202235274</v>
+        <v>3426.307890130708</v>
       </c>
       <c r="G140" t="n">
-        <v>1.971837824233514</v>
+        <v>3.549308083620325</v>
       </c>
       <c r="H140" t="n">
-        <v>1692.007975224621</v>
+        <v>1261.148283691344</v>
       </c>
       <c r="I140" t="n">
-        <v>199.3924299206441</v>
+        <v>148.6183425004744</v>
       </c>
       <c r="J140" t="n">
         <v>1.137983607668575</v>
@@ -7925,16 +7925,16 @@
         <v>4.961754273360011</v>
       </c>
       <c r="F141" t="n">
-        <v>6167.518221659921</v>
+        <v>3426.39901203329</v>
       </c>
       <c r="G141" t="n">
-        <v>1.972217905240451</v>
+        <v>3.549992229432813</v>
       </c>
       <c r="H141" t="n">
-        <v>1692.030474364475</v>
+        <v>1261.165053560061</v>
       </c>
       <c r="I141" t="n">
-        <v>196.6055986159637</v>
+        <v>146.5411610874445</v>
       </c>
       <c r="J141" t="n">
         <v>1.137983607668575</v>
@@ -7978,16 +7978,16 @@
         <v>4.962793354627363</v>
       </c>
       <c r="F142" t="n">
-        <v>6167.674816063288</v>
+        <v>3426.486008924049</v>
       </c>
       <c r="G142" t="n">
-        <v>1.972580839228214</v>
+        <v>3.550645510610786</v>
       </c>
       <c r="H142" t="n">
-        <v>1692.051954708047</v>
+        <v>1261.181064062863</v>
       </c>
       <c r="I142" t="n">
-        <v>193.9075548522441</v>
+        <v>144.530158000129</v>
       </c>
       <c r="J142" t="n">
         <v>1.137983607668575</v>
@@ -8005,10 +8005,10 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O142" t="n">
-        <v>4.996831211261964e-05</v>
+        <v>4.996831211261963e-05</v>
       </c>
       <c r="P142" t="n">
-        <v>0.09992757382249086</v>
+        <v>0.09992757382249084</v>
       </c>
       <c r="Q142" t="n">
         <v>1.682239246480887</v>
@@ -8031,16 +8031,16 @@
         <v>4.963786095585318</v>
       </c>
       <c r="F143" t="n">
-        <v>6167.824399855132</v>
+        <v>3426.569111030628</v>
       </c>
       <c r="G143" t="n">
-        <v>1.972927578701884</v>
+        <v>3.551269641663392</v>
       </c>
       <c r="H143" t="n">
-        <v>1692.072473138438</v>
+        <v>1261.196357597912</v>
       </c>
       <c r="I143" t="n">
-        <v>191.2947675228437</v>
+        <v>142.5827013070325</v>
       </c>
       <c r="J143" t="n">
         <v>1.137983607668575</v>
@@ -8084,16 +8084,16 @@
         <v>4.964735084762679</v>
       </c>
       <c r="F144" t="n">
-        <v>6167.967366660683</v>
+        <v>3426.648537033713</v>
       </c>
       <c r="G144" t="n">
-        <v>1.973259028917154</v>
+        <v>3.551866252050877</v>
       </c>
       <c r="H144" t="n">
-        <v>1692.09208368332</v>
+        <v>1261.210974435055</v>
       </c>
       <c r="I144" t="n">
-        <v>188.7637616660381</v>
+        <v>140.6962009246101</v>
       </c>
       <c r="J144" t="n">
         <v>1.137983607668575</v>
@@ -8111,10 +8111,10 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O144" t="n">
-        <v>4.996997119958395e-05</v>
+        <v>4.996997119958396e-05</v>
       </c>
       <c r="P144" t="n">
-        <v>0.09993136568683231</v>
+        <v>0.09993136568683232</v>
       </c>
       <c r="Q144" t="n">
         <v>1.682231267343325</v>
@@ -8137,16 +8137,16 @@
         <v>4.965642782296472</v>
       </c>
       <c r="F145" t="n">
-        <v>6168.104090343485</v>
+        <v>3426.724494635269</v>
       </c>
       <c r="G145" t="n">
-        <v>1.973576050152979</v>
+        <v>3.552436890275362</v>
       </c>
       <c r="H145" t="n">
-        <v>1692.1108376557</v>
+        <v>1261.224952820752</v>
       </c>
       <c r="I145" t="n">
-        <v>186.311119515182</v>
+        <v>138.8681094000115</v>
       </c>
       <c r="J145" t="n">
         <v>1.137983607668575</v>
@@ -8190,16 +8190,16 @@
         <v>4.966511481629723</v>
       </c>
       <c r="F146" t="n">
-        <v>6168.234919282063</v>
+        <v>3426.797177378924</v>
       </c>
       <c r="G146" t="n">
-        <v>1.973879444348845</v>
+        <v>3.552982999827921</v>
       </c>
       <c r="H146" t="n">
-        <v>1692.128782869313</v>
+        <v>1261.238328393255</v>
       </c>
       <c r="I146" t="n">
-        <v>183.9336039984063</v>
+        <v>137.0960139623212</v>
       </c>
       <c r="J146" t="n">
         <v>1.137983607668575</v>
@@ -8243,16 +8243,16 @@
         <v>4.967343279401579</v>
       </c>
       <c r="F147" t="n">
-        <v>6168.360171881483</v>
+        <v>3426.866762156379</v>
       </c>
       <c r="G147" t="n">
-        <v>1.974169944603591</v>
+        <v>3.553505900286465</v>
       </c>
       <c r="H147" t="n">
-        <v>1692.145963023397</v>
+        <v>1261.251133724054</v>
       </c>
       <c r="I147" t="n">
-        <v>181.6282677693439</v>
+        <v>135.3777177892624</v>
       </c>
       <c r="J147" t="n">
         <v>1.137983607668575</v>
@@ -8296,16 +8296,16 @@
         <v>4.968140135989021</v>
       </c>
       <c r="F148" t="n">
-        <v>6168.480145732188</v>
+        <v>3426.93341429566</v>
       </c>
       <c r="G148" t="n">
-        <v>1.974448236332764</v>
+        <v>3.554006825398976</v>
       </c>
       <c r="H148" t="n">
-        <v>1692.162418959363</v>
+        <v>1261.263399254538</v>
       </c>
       <c r="I148" t="n">
-        <v>179.3923127734161</v>
+        <v>133.7111353340875</v>
       </c>
       <c r="J148" t="n">
         <v>1.137983607668575</v>
@@ -8323,10 +8323,10 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O148" t="n">
-        <v>4.997287916975816e-05</v>
+        <v>4.997287916975817e-05</v>
       </c>
       <c r="P148" t="n">
-        <v>0.09993801193300952</v>
+        <v>0.09993801193300954</v>
       </c>
       <c r="Q148" t="n">
         <v>1.682217282613906</v>
@@ -8349,16 +8349,16 @@
         <v>4.968903926483474</v>
       </c>
       <c r="F149" t="n">
-        <v>6168.595125317605</v>
+        <v>3426.997291843114</v>
       </c>
       <c r="G149" t="n">
-        <v>1.974714975081928</v>
+        <v>3.55448695514747</v>
       </c>
       <c r="H149" t="n">
-        <v>1692.178189718297</v>
+        <v>1261.275154084216</v>
       </c>
       <c r="I149" t="n">
-        <v>177.2229648334625</v>
+        <v>132.0941988472256</v>
       </c>
       <c r="J149" t="n">
         <v>1.137983607668575</v>
@@ -8402,16 +8402,16 @@
         <v>4.969636404605456</v>
       </c>
       <c r="F150" t="n">
-        <v>6168.7053766093</v>
+        <v>3427.058542560723</v>
       </c>
       <c r="G150" t="n">
-        <v>1.9749707739333</v>
+        <v>3.554947393079939</v>
       </c>
       <c r="H150" t="n">
-        <v>1692.193311799889</v>
+        <v>1261.286425418349</v>
       </c>
       <c r="I150" t="n">
-        <v>175.1175897797472</v>
+        <v>130.5249449344791</v>
       </c>
       <c r="J150" t="n">
         <v>1.137983607668575</v>
@@ -8429,7 +8429,7 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O150" t="n">
-        <v>4.997415643116576e-05</v>
+        <v>4.997415643116577e-05</v>
       </c>
       <c r="P150" t="n">
         <v>0.09994093116670937</v>
@@ -8455,16 +8455,16 @@
         <v>4.970339135181097</v>
       </c>
       <c r="F151" t="n">
-        <v>6168.811136933014</v>
+        <v>3427.117298296119</v>
       </c>
       <c r="G151" t="n">
-        <v>1.975216179934366</v>
+        <v>3.555389123881859</v>
       </c>
       <c r="H151" t="n">
-        <v>1692.207817772734</v>
+        <v>1261.297237532137</v>
       </c>
       <c r="I151" t="n">
-        <v>173.0739091539505</v>
+        <v>129.0016753332854</v>
       </c>
       <c r="J151" t="n">
         <v>1.137983607668575</v>
@@ -8482,13 +8482,13 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O151" t="n">
-        <v>4.997475618238304e-05</v>
+        <v>4.997475618238303e-05</v>
       </c>
       <c r="P151" t="n">
-        <v>0.09994230192656457</v>
+        <v>0.09994230192656456</v>
       </c>
       <c r="Q151" t="n">
-        <v>1.682208256359892</v>
+        <v>1.682208256359893</v>
       </c>
     </row>
     <row r="152">
@@ -8508,16 +8508,16 @@
         <v>4.971013625196656</v>
       </c>
       <c r="F152" t="n">
-        <v>6168.912634720031</v>
+        <v>3427.173685955573</v>
       </c>
       <c r="G152" t="n">
-        <v>1.975451719873321</v>
+        <v>3.555813095771978</v>
       </c>
       <c r="H152" t="n">
-        <v>1692.221738983676</v>
+        <v>1261.307613790135</v>
       </c>
       <c r="I152" t="n">
-        <v>171.0896421118171</v>
+        <v>127.5226900027112</v>
       </c>
       <c r="J152" t="n">
         <v>1.137983607668575</v>
@@ -8561,16 +8561,16 @@
         <v>4.97166136147198</v>
       </c>
       <c r="F153" t="n">
-        <v>6169.010095192534</v>
+        <v>3427.227830662519</v>
       </c>
       <c r="G153" t="n">
-        <v>1.975677913440255</v>
+        <v>3.55622024419246</v>
       </c>
       <c r="H153" t="n">
-        <v>1692.235106337749</v>
+        <v>1261.317577227597</v>
       </c>
       <c r="I153" t="n">
-        <v>169.1624003775269</v>
+        <v>126.0862088270621</v>
       </c>
       <c r="J153" t="n">
         <v>1.137983607668575</v>
@@ -8614,16 +8614,16 @@
         <v>4.972283631244698</v>
       </c>
       <c r="F154" t="n">
-        <v>6169.103713385482</v>
+        <v>3427.279840769713</v>
       </c>
       <c r="G154" t="n">
-        <v>1.975895210579572</v>
+        <v>3.556611379043229</v>
       </c>
       <c r="H154" t="n">
-        <v>1692.247946598116</v>
+        <v>1261.327147792607</v>
       </c>
       <c r="I154" t="n">
-        <v>167.2902327018985</v>
+        <v>124.6907774310678</v>
       </c>
       <c r="J154" t="n">
         <v>1.137983607668575</v>
@@ -8667,16 +8667,16 @@
         <v>4.972881714713941</v>
       </c>
       <c r="F155" t="n">
-        <v>6169.193683135732</v>
+        <v>3427.329823964295</v>
       </c>
       <c r="G155" t="n">
-        <v>1.976104058733327</v>
+        <v>3.556987305719989</v>
       </c>
       <c r="H155" t="n">
-        <v>1692.260286362293</v>
+        <v>1261.336345309783</v>
       </c>
       <c r="I155" t="n">
-        <v>165.4710675741163</v>
+        <v>123.3348518017285</v>
       </c>
       <c r="J155" t="n">
         <v>1.137983607668575</v>
@@ -8720,16 +8720,16 @@
         <v>4.973456747651397</v>
       </c>
       <c r="F156" t="n">
-        <v>6169.280176426941</v>
+        <v>3427.377875792745</v>
       </c>
       <c r="G156" t="n">
-        <v>1.97630485486955</v>
+        <v>3.557348738765191</v>
       </c>
       <c r="H156" t="n">
-        <v>1692.272149229326</v>
+        <v>1261.345187368814</v>
       </c>
       <c r="I156" t="n">
-        <v>163.703137647432</v>
+        <v>122.0171146365543</v>
       </c>
       <c r="J156" t="n">
         <v>1.137983607668575</v>
@@ -8773,16 +8773,16 @@
         <v>4.97400989803448</v>
       </c>
       <c r="F157" t="n">
-        <v>6169.363369972542</v>
+        <v>3427.424094429191</v>
       </c>
       <c r="G157" t="n">
-        <v>1.976498007165612</v>
+        <v>3.557696412898101</v>
       </c>
       <c r="H157" t="n">
-        <v>1692.28355944588</v>
+        <v>1261.353692042098</v>
       </c>
       <c r="I157" t="n">
-        <v>161.9844504344941</v>
+        <v>120.736080823158</v>
       </c>
       <c r="J157" t="n">
         <v>1.137983607668575</v>
@@ -8826,16 +8826,16 @@
         <v>4.974542167976509</v>
       </c>
       <c r="F158" t="n">
-        <v>6169.443415434986</v>
+        <v>3427.468564130548</v>
       </c>
       <c r="G158" t="n">
-        <v>1.976683865847872</v>
+        <v>3.558030958526169</v>
       </c>
       <c r="H158" t="n">
-        <v>1692.294537821815</v>
+        <v>1261.361874840389</v>
       </c>
       <c r="I158" t="n">
-        <v>160.3134070727811</v>
+        <v>119.4905586397781</v>
       </c>
       <c r="J158" t="n">
         <v>1.137983607668575</v>
@@ -8879,16 +8879,16 @@
         <v>4.975054565011899</v>
       </c>
       <c r="F159" t="n">
-        <v>6169.520465198909</v>
+        <v>3427.511369554949</v>
       </c>
       <c r="G159" t="n">
-        <v>1.976862783005868</v>
+        <v>3.558353009410562</v>
       </c>
       <c r="H159" t="n">
-        <v>1692.30510526516</v>
+        <v>1261.369751347612</v>
       </c>
       <c r="I159" t="n">
-        <v>158.6882821538912</v>
+        <v>118.2792620429225</v>
       </c>
       <c r="J159" t="n">
         <v>1.137983607668575</v>
@@ -8932,16 +8932,16 @@
         <v>4.975548007834728</v>
       </c>
       <c r="F160" t="n">
-        <v>6169.594658203943</v>
+        <v>3427.552587891079</v>
       </c>
       <c r="G160" t="n">
-        <v>1.977035079680647</v>
+        <v>3.558663143425165</v>
       </c>
       <c r="H160" t="n">
-        <v>1692.315280839131</v>
+        <v>1261.377335772648</v>
       </c>
       <c r="I160" t="n">
-        <v>157.1075254895237</v>
+        <v>117.101035590452</v>
       </c>
       <c r="J160" t="n">
         <v>1.137983607668575</v>
@@ -8985,16 +8985,16 @@
         <v>4.97602327525813</v>
       </c>
       <c r="F161" t="n">
-        <v>6169.666112282181</v>
+        <v>3427.592284601211</v>
       </c>
       <c r="G161" t="n">
-        <v>1.977201028046573</v>
+        <v>3.558961850483831</v>
       </c>
       <c r="H161" t="n">
-        <v>1692.325080711331</v>
+        <v>1261.384640166118</v>
       </c>
       <c r="I161" t="n">
-        <v>155.5699414716291</v>
+        <v>115.9549881287421</v>
       </c>
       <c r="J161" t="n">
         <v>1.137983607668575</v>
@@ -9038,16 +9038,16 @@
         <v>4.976481220725325</v>
       </c>
       <c r="F162" t="n">
-        <v>6169.734956417939</v>
+        <v>3427.630531343299</v>
       </c>
       <c r="G162" t="n">
-        <v>1.977360926314708</v>
+        <v>3.559249667366474</v>
       </c>
       <c r="H162" t="n">
-        <v>1692.334522578239</v>
+        <v>1261.391677718198</v>
       </c>
       <c r="I162" t="n">
-        <v>154.0740062883445</v>
+        <v>114.8399838754895</v>
       </c>
       <c r="J162" t="n">
         <v>1.137983607668575</v>
@@ -9091,16 +9091,16 @@
         <v>4.976922705167298</v>
       </c>
       <c r="F163" t="n">
-        <v>6169.801320654623</v>
+        <v>3427.667400363679</v>
       </c>
       <c r="G163" t="n">
-        <v>1.977515075289271</v>
+        <v>3.559527135520687</v>
       </c>
       <c r="H163" t="n">
-        <v>1692.343624280953</v>
+        <v>1261.398461726858</v>
       </c>
       <c r="I163" t="n">
-        <v>152.6180780936058</v>
+        <v>113.7547990708914</v>
       </c>
       <c r="J163" t="n">
         <v>1.137983607668575</v>
@@ -9144,16 +9144,16 @@
         <v>4.977348429756819</v>
       </c>
       <c r="F164" t="n">
-        <v>6169.865310960507</v>
+        <v>3427.702950533615</v>
       </c>
       <c r="G164" t="n">
-        <v>1.977663719973949</v>
+        <v>3.559794695953107</v>
       </c>
       <c r="H164" t="n">
-        <v>1692.352400358152</v>
+        <v>1261.405003028589</v>
       </c>
       <c r="I164" t="n">
-        <v>151.2009548244929</v>
+        <v>112.6985377501469</v>
       </c>
       <c r="J164" t="n">
         <v>1.137983607668575</v>
@@ -9197,16 +9197,16 @@
         <v>4.977759112104887</v>
       </c>
       <c r="F165" t="n">
-        <v>6169.927035722169</v>
+        <v>3427.737242067872</v>
       </c>
       <c r="G165" t="n">
-        <v>1.977807111095143</v>
+        <v>3.560052799971257</v>
       </c>
       <c r="H165" t="n">
-        <v>1692.360865679682</v>
+        <v>1261.41131270672</v>
       </c>
       <c r="I165" t="n">
-        <v>149.8213038513914</v>
+        <v>111.6702066297874</v>
       </c>
       <c r="J165" t="n">
         <v>1.137983607668575</v>
@@ -9250,16 +9250,16 @@
         <v>4.978155378068843</v>
       </c>
       <c r="F166" t="n">
-        <v>6169.986589487211</v>
+        <v>3427.770327492895</v>
       </c>
       <c r="G166" t="n">
-        <v>1.977945467327605</v>
+        <v>3.560301841189689</v>
       </c>
       <c r="H166" t="n">
-        <v>1692.369033216961</v>
+        <v>1261.417400429575</v>
       </c>
       <c r="I166" t="n">
-        <v>148.4780275176062</v>
+        <v>110.6689875648172</v>
       </c>
       <c r="J166" t="n">
         <v>1.137983607668575</v>
@@ -9280,7 +9280,7 @@
         <v>4.99814217930241e-05</v>
       </c>
       <c r="P166" t="n">
-        <v>0.09995753665405156</v>
+        <v>0.09995753665405155</v>
       </c>
       <c r="Q166" t="n">
         <v>1.682176205633325</v>
@@ -9303,16 +9303,16 @@
         <v>4.978537897767161</v>
       </c>
       <c r="F167" t="n">
-        <v>6170.04407341095</v>
+        <v>3427.802263006083</v>
       </c>
       <c r="G167" t="n">
-        <v>1.978079022785716</v>
+        <v>3.56054224101429</v>
       </c>
       <c r="H167" t="n">
-        <v>1692.376916847213</v>
+        <v>1261.423276540626</v>
       </c>
       <c r="I167" t="n">
-        <v>147.1698095231203</v>
+        <v>109.6938994431309</v>
       </c>
       <c r="J167" t="n">
         <v>1.137983607668575</v>
@@ -9356,16 +9356,16 @@
         <v>4.978907229268808</v>
       </c>
       <c r="F168" t="n">
-        <v>6170.099571769039</v>
+        <v>3427.833095427244</v>
       </c>
       <c r="G168" t="n">
-        <v>1.978207972448962</v>
+        <v>3.560774350408132</v>
       </c>
       <c r="H168" t="n">
-        <v>1692.384528132305</v>
+        <v>1261.42894965758</v>
       </c>
       <c r="I168" t="n">
-        <v>145.8956496627243</v>
+        <v>108.7441967557819</v>
       </c>
       <c r="J168" t="n">
         <v>1.137983607668575</v>
@@ -9409,16 +9409,16 @@
         <v>4.979263951295798</v>
       </c>
       <c r="F169" t="n">
-        <v>6170.153171904088</v>
+        <v>3427.862873280049</v>
       </c>
       <c r="G169" t="n">
-        <v>1.978332518496009</v>
+        <v>3.560998533292817</v>
       </c>
       <c r="H169" t="n">
-        <v>1692.391879054377</v>
+        <v>1261.434428711396</v>
       </c>
       <c r="I169" t="n">
-        <v>144.6544166293833</v>
+        <v>107.8190362762923</v>
       </c>
       <c r="J169" t="n">
         <v>1.137983607668575</v>
@@ -9439,7 +9439,7 @@
         <v>4.998236639712353e-05</v>
       </c>
       <c r="P169" t="n">
-        <v>0.09995969563742614</v>
+        <v>0.09995969563742615</v>
       </c>
       <c r="Q169" t="n">
         <v>1.682171664021883</v>
@@ -9462,16 +9462,16 @@
         <v>4.979608492065194</v>
       </c>
       <c r="F170" t="n">
-        <v>6170.20493851126</v>
+        <v>3427.891632506256</v>
       </c>
       <c r="G170" t="n">
-        <v>1.978452810547624</v>
+        <v>3.561215058985724</v>
       </c>
       <c r="H170" t="n">
-        <v>1692.398978489301</v>
+        <v>1261.43972031776</v>
       </c>
       <c r="I170" t="n">
-        <v>143.4454478997267</v>
+        <v>106.9179241888978</v>
       </c>
       <c r="J170" t="n">
         <v>1.137983607668575</v>
@@ -9492,7 +9492,7 @@
         <v>4.998265993764659e-05</v>
       </c>
       <c r="P170" t="n">
-        <v>0.09996036655366586</v>
+        <v>0.09996036655366587</v>
       </c>
       <c r="Q170" t="n">
         <v>1.682170252713031</v>
@@ -9515,16 +9515,16 @@
         <v>4.979941354671548</v>
       </c>
       <c r="F171" t="n">
-        <v>6170.254947507094</v>
+        <v>3427.919415281719</v>
       </c>
       <c r="G171" t="n">
-        <v>1.978569024357868</v>
+        <v>3.561424243844162</v>
       </c>
       <c r="H171" t="n">
-        <v>1692.405836851609</v>
+        <v>1261.444832239206</v>
       </c>
       <c r="I171" t="n">
-        <v>142.2677708265396</v>
+        <v>106.0401355251681</v>
       </c>
       <c r="J171" t="n">
         <v>1.137983607668575</v>
@@ -9568,16 +9568,16 @@
         <v>4.980263108528169</v>
       </c>
       <c r="F172" t="n">
-        <v>6170.303284741938</v>
+        <v>3427.946269301077</v>
       </c>
       <c r="G172" t="n">
-        <v>1.978681358825403</v>
+        <v>3.561626445885724</v>
       </c>
       <c r="H172" t="n">
-        <v>1692.412465917901</v>
+        <v>1261.449773253491</v>
       </c>
       <c r="I172" t="n">
-        <v>141.120122228544</v>
+        <v>105.1847287653679</v>
       </c>
       <c r="J172" t="n">
         <v>1.137983607668575</v>
@@ -9621,16 +9621,16 @@
         <v>4.980574178916637</v>
       </c>
       <c r="F173" t="n">
-        <v>6170.350014385309</v>
+        <v>3427.97223021406</v>
       </c>
       <c r="G173" t="n">
-        <v>1.978789962519011</v>
+        <v>3.561821932534219</v>
       </c>
       <c r="H173" t="n">
-        <v>1692.418874491158</v>
+        <v>1261.454549921972</v>
       </c>
       <c r="I173" t="n">
-        <v>140.0016986107242</v>
+        <v>104.3511050196724</v>
       </c>
       <c r="J173" t="n">
         <v>1.137983607668575</v>
@@ -9674,16 +9674,16 @@
         <v>4.9808750147541</v>
       </c>
       <c r="F174" t="n">
-        <v>6170.395204133607</v>
+        <v>3427.997335629781</v>
       </c>
       <c r="G174" t="n">
-        <v>1.97889499225175</v>
+        <v>3.56201098605315</v>
       </c>
       <c r="H174" t="n">
-        <v>1692.425071857819</v>
+        <v>1261.45916916635</v>
       </c>
       <c r="I174" t="n">
-        <v>138.911566398521</v>
+        <v>103.5385684426895</v>
       </c>
       <c r="J174" t="n">
         <v>1.137983607668575</v>
@@ -9727,16 +9727,16 @@
         <v>4.981166020459172</v>
       </c>
       <c r="F175" t="n">
-        <v>6170.4389149765</v>
+        <v>3428.021619431389</v>
       </c>
       <c r="G175" t="n">
-        <v>1.978996589293873</v>
+        <v>3.562193860728973</v>
       </c>
       <c r="H175" t="n">
-        <v>1692.431066384341</v>
+        <v>1261.463637222615</v>
       </c>
       <c r="I175" t="n">
-        <v>137.8489083537821</v>
+        <v>102.7465099010651</v>
       </c>
       <c r="J175" t="n">
         <v>1.137983607668575</v>
@@ -9780,16 +9780,16 @@
         <v>4.981447580631237</v>
       </c>
       <c r="F176" t="n">
-        <v>6170.481204906486</v>
+        <v>3428.045113836937</v>
       </c>
       <c r="G176" t="n">
-        <v>1.9790948879898</v>
+        <v>3.562370798381641</v>
       </c>
       <c r="H176" t="n">
-        <v>1692.43686602596</v>
+        <v>1261.46796002025</v>
       </c>
       <c r="I176" t="n">
-        <v>136.8129386619306</v>
+        <v>101.9743436831953</v>
       </c>
       <c r="J176" t="n">
         <v>1.137983607668575</v>
@@ -9833,16 +9833,16 @@
         <v>4.981720040290816</v>
       </c>
       <c r="F177" t="n">
-        <v>6170.522125952995</v>
+        <v>3428.067847751664</v>
       </c>
       <c r="G177" t="n">
-        <v>1.97919000886023</v>
+        <v>3.562542015948414</v>
       </c>
       <c r="H177" t="n">
-        <v>1692.442477919958</v>
+        <v>1261.472142879071</v>
       </c>
       <c r="I177" t="n">
-        <v>135.8029792020805</v>
+        <v>101.2215643476141</v>
       </c>
       <c r="J177" t="n">
         <v>1.137983607668575</v>
@@ -9886,16 +9886,16 @@
         <v>4.981983646282631</v>
       </c>
       <c r="F178" t="n">
-        <v>6170.561715384599</v>
+        <v>3428.089841880333</v>
       </c>
       <c r="G178" t="n">
-        <v>1.979282038145779</v>
+        <v>3.562707668662403</v>
       </c>
       <c r="H178" t="n">
-        <v>1692.447907179175</v>
+        <v>1261.476189609964</v>
       </c>
       <c r="I178" t="n">
-        <v>134.8186845469486</v>
+        <v>100.4879144280259</v>
       </c>
       <c r="J178" t="n">
         <v>1.137983607668575</v>
@@ -9939,16 +9939,16 @@
         <v>4.982238837495496</v>
       </c>
       <c r="F179" t="n">
-        <v>6170.60003929659</v>
+        <v>3428.11113294255</v>
       </c>
       <c r="G179" t="n">
-        <v>1.979371129128</v>
+        <v>3.5628680324304</v>
       </c>
       <c r="H179" t="n">
-        <v>1692.453162869575</v>
+        <v>1261.480106970298</v>
       </c>
       <c r="I179" t="n">
-        <v>133.8589597360791</v>
+        <v>99.7725777890934</v>
       </c>
       <c r="J179" t="n">
         <v>1.137983607668575</v>
@@ -9992,16 +9992,16 @@
         <v>4.982485950430591</v>
       </c>
       <c r="F180" t="n">
-        <v>6170.637148391255</v>
+        <v>3428.131749106253</v>
       </c>
       <c r="G180" t="n">
-        <v>1.979457399338072</v>
+        <v>3.563023318808529</v>
       </c>
       <c r="H180" t="n">
-        <v>1692.458251945987</v>
+        <v>1261.483900143897</v>
       </c>
       <c r="I180" t="n">
-        <v>132.9230537322937</v>
+        <v>99.07499464075525</v>
       </c>
       <c r="J180" t="n">
         <v>1.137983607668575</v>
@@ -10022,7 +10022,7 @@
         <v>4.998511073804662e-05</v>
       </c>
       <c r="P180" t="n">
-        <v>0.09996596812519713</v>
+        <v>0.09996596812519715</v>
       </c>
       <c r="Q180" t="n">
         <v>1.682158469918114</v>
@@ -10045,16 +10045,16 @@
         <v>4.982677642878224</v>
       </c>
       <c r="F181" t="n">
-        <v>6170.665933844862</v>
+        <v>3428.147741024924</v>
       </c>
       <c r="G181" t="n">
-        <v>1.979524321206899</v>
+        <v>3.563143778172418</v>
       </c>
       <c r="H181" t="n">
-        <v>1692.462199522266</v>
+        <v>1261.486842493533</v>
       </c>
       <c r="I181" t="n">
-        <v>132.1925099079869</v>
+        <v>98.5304794235244</v>
       </c>
       <c r="J181" t="n">
         <v>1.137983607668575</v>
@@ -10072,7 +10072,7 @@
         <v>2956.258577308672</v>
       </c>
       <c r="O181" t="n">
-        <v>4.998527396108686e-05</v>
+        <v>4.998527396108687e-05</v>
       </c>
       <c r="P181" t="n">
         <v>0.09996634119064579</v>
@@ -10185,7 +10185,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6173.263133143921</v>
+        <v>3429.5906295244</v>
       </c>
     </row>
     <row r="9">
